--- a/lang/id/headTags.xlsx
+++ b/lang/id/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>id</t>
+    <t>id (Indonesian)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/id/headTags.xlsx
+++ b/lang/id/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1900">
   <si>
     <t>en</t>
   </si>
@@ -1571,6 +1571,12 @@
   </si>
   <si>
     <t>Mudah meledak</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Mata</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -6057,7 +6063,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8587,15 +8593,15 @@
         <v>518</v>
       </c>
       <c r="B315" t="s">
-        <v>175</v>
+        <v>519</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B316" t="s">
-        <v>520</v>
+        <v>175</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -8603,12 +8609,12 @@
         <v>521</v>
       </c>
       <c r="B317" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B318" t="s">
         <v>523</v>
@@ -8619,12 +8625,12 @@
         <v>524</v>
       </c>
       <c r="B319" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B320" t="s">
         <v>526</v>
@@ -8643,20 +8649,20 @@
         <v>529</v>
       </c>
       <c r="B322" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B323" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B324" t="s">
         <v>532</v>
@@ -8667,12 +8673,12 @@
         <v>533</v>
       </c>
       <c r="B325" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B326" t="s">
         <v>535</v>
@@ -8699,12 +8705,12 @@
         <v>540</v>
       </c>
       <c r="B329" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B330" t="s">
         <v>542</v>
@@ -8755,20 +8761,20 @@
         <v>553</v>
       </c>
       <c r="B336" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B337" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B338" t="s">
         <v>556</v>
@@ -8779,12 +8785,12 @@
         <v>557</v>
       </c>
       <c r="B339" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B340" t="s">
         <v>559</v>
@@ -8835,12 +8841,12 @@
         <v>570</v>
       </c>
       <c r="B346" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B347" t="s">
         <v>572</v>
@@ -8939,12 +8945,12 @@
         <v>595</v>
       </c>
       <c r="B359" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B360" t="s">
         <v>597</v>
@@ -8971,12 +8977,12 @@
         <v>602</v>
       </c>
       <c r="B363" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B364" t="s">
         <v>604</v>
@@ -9003,20 +9009,20 @@
         <v>609</v>
       </c>
       <c r="B367" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B368" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B369" t="s">
         <v>612</v>
@@ -9075,12 +9081,12 @@
         <v>625</v>
       </c>
       <c r="B376" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B377" t="s">
         <v>627</v>
@@ -9091,12 +9097,12 @@
         <v>628</v>
       </c>
       <c r="B378" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B379" t="s">
         <v>630</v>
@@ -9147,12 +9153,12 @@
         <v>641</v>
       </c>
       <c r="B385" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B386" t="s">
         <v>643</v>
@@ -9187,12 +9193,12 @@
         <v>650</v>
       </c>
       <c r="B390" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B391" t="s">
         <v>652</v>
@@ -9251,12 +9257,12 @@
         <v>665</v>
       </c>
       <c r="B398" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B399" t="s">
         <v>667</v>
@@ -9275,36 +9281,36 @@
         <v>670</v>
       </c>
       <c r="B401" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B402" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B403" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B404" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B405" t="s">
         <v>675</v>
@@ -9315,20 +9321,20 @@
         <v>676</v>
       </c>
       <c r="B406" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B407" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B408" t="s">
         <v>679</v>
@@ -9435,12 +9441,12 @@
         <v>704</v>
       </c>
       <c r="B421" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B422" t="s">
         <v>706</v>
@@ -9467,12 +9473,12 @@
         <v>711</v>
       </c>
       <c r="B425" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B426" t="s">
         <v>713</v>
@@ -9507,12 +9513,12 @@
         <v>720</v>
       </c>
       <c r="B430" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B431" t="s">
         <v>722</v>
@@ -9531,12 +9537,12 @@
         <v>725</v>
       </c>
       <c r="B433" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B434" t="s">
         <v>727</v>
@@ -9547,12 +9553,12 @@
         <v>728</v>
       </c>
       <c r="B435" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B436" t="s">
         <v>730</v>
@@ -9611,12 +9617,12 @@
         <v>743</v>
       </c>
       <c r="B443" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B444" t="s">
         <v>745</v>
@@ -9627,12 +9633,12 @@
         <v>746</v>
       </c>
       <c r="B445" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B446" t="s">
         <v>748</v>
@@ -9643,12 +9649,12 @@
         <v>749</v>
       </c>
       <c r="B447" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B448" t="s">
         <v>751</v>
@@ -9659,12 +9665,12 @@
         <v>752</v>
       </c>
       <c r="B449" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B450" t="s">
         <v>754</v>
@@ -9683,12 +9689,12 @@
         <v>757</v>
       </c>
       <c r="B452" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B453" t="s">
         <v>759</v>
@@ -9763,36 +9769,36 @@
         <v>776</v>
       </c>
       <c r="B462" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B463" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B464" t="s">
-        <v>520</v>
+        <v>779</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B465" t="s">
-        <v>779</v>
+        <v>522</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B466" t="s">
         <v>781</v>
@@ -9803,15 +9809,15 @@
         <v>782</v>
       </c>
       <c r="B467" t="s">
-        <v>138</v>
+        <v>783</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B468" t="s">
-        <v>784</v>
+        <v>138</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -9827,44 +9833,44 @@
         <v>787</v>
       </c>
       <c r="B470" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B471" t="s">
-        <v>520</v>
+        <v>789</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B472" t="s">
-        <v>789</v>
+        <v>522</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B473" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B474" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B475" t="s">
         <v>793</v>
@@ -9891,12 +9897,12 @@
         <v>798</v>
       </c>
       <c r="B478" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B479" t="s">
         <v>800</v>
@@ -9907,12 +9913,12 @@
         <v>801</v>
       </c>
       <c r="B480" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B481" t="s">
         <v>803</v>
@@ -9931,52 +9937,52 @@
         <v>806</v>
       </c>
       <c r="B483" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B484" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B485" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B486" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B487" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B488" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B489" t="s">
         <v>813</v>
@@ -10139,12 +10145,12 @@
         <v>852</v>
       </c>
       <c r="B509" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B510" t="s">
         <v>854</v>
@@ -10155,28 +10161,28 @@
         <v>855</v>
       </c>
       <c r="B511" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B512" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B513" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B514" t="s">
         <v>859</v>
@@ -10203,28 +10209,28 @@
         <v>864</v>
       </c>
       <c r="B517" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B518" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B519" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B520" t="s">
         <v>868</v>
@@ -10251,12 +10257,12 @@
         <v>873</v>
       </c>
       <c r="B523" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B524" t="s">
         <v>875</v>
@@ -10307,12 +10313,12 @@
         <v>886</v>
       </c>
       <c r="B530" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B531" t="s">
         <v>888</v>
@@ -10331,20 +10337,20 @@
         <v>891</v>
       </c>
       <c r="B533" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B534" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B535" t="s">
         <v>894</v>
@@ -10355,44 +10361,44 @@
         <v>895</v>
       </c>
       <c r="B536" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B537" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B538" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B539" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B540" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B541" t="s">
         <v>901</v>
@@ -10419,20 +10425,20 @@
         <v>906</v>
       </c>
       <c r="B544" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B545" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B546" t="s">
         <v>909</v>
@@ -10443,12 +10449,12 @@
         <v>910</v>
       </c>
       <c r="B547" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B548" t="s">
         <v>912</v>
@@ -10459,28 +10465,28 @@
         <v>913</v>
       </c>
       <c r="B549" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B550" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B551" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B552" t="s">
         <v>917</v>
@@ -10491,12 +10497,12 @@
         <v>918</v>
       </c>
       <c r="B553" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B554" t="s">
         <v>920</v>
@@ -10563,20 +10569,20 @@
         <v>935</v>
       </c>
       <c r="B562" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B563" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B564" t="s">
         <v>938</v>
@@ -10595,12 +10601,12 @@
         <v>941</v>
       </c>
       <c r="B566" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B567" t="s">
         <v>943</v>
@@ -10619,12 +10625,12 @@
         <v>946</v>
       </c>
       <c r="B569" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B570" t="s">
         <v>948</v>
@@ -10651,12 +10657,12 @@
         <v>953</v>
       </c>
       <c r="B573" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B574" t="s">
         <v>955</v>
@@ -10667,12 +10673,12 @@
         <v>956</v>
       </c>
       <c r="B575" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B576" t="s">
         <v>958</v>
@@ -10683,12 +10689,12 @@
         <v>959</v>
       </c>
       <c r="B577" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B578" t="s">
         <v>961</v>
@@ -10707,36 +10713,36 @@
         <v>964</v>
       </c>
       <c r="B580" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B581" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B582" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B583" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B584" t="s">
         <v>969</v>
@@ -10747,12 +10753,12 @@
         <v>970</v>
       </c>
       <c r="B585" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B586" t="s">
         <v>972</v>
@@ -10795,12 +10801,12 @@
         <v>981</v>
       </c>
       <c r="B591" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B592" t="s">
         <v>983</v>
@@ -10867,12 +10873,12 @@
         <v>998</v>
       </c>
       <c r="B600" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B601" t="s">
         <v>1000</v>
@@ -10891,12 +10897,12 @@
         <v>1003</v>
       </c>
       <c r="B603" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B604" t="s">
         <v>1005</v>
@@ -10939,28 +10945,28 @@
         <v>1014</v>
       </c>
       <c r="B609" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B610" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B611" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B612" t="s">
         <v>1018</v>
@@ -10971,12 +10977,12 @@
         <v>1019</v>
       </c>
       <c r="B613" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B614" t="s">
         <v>1021</v>
@@ -11003,12 +11009,12 @@
         <v>1026</v>
       </c>
       <c r="B617" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B618" t="s">
         <v>1028</v>
@@ -11043,76 +11049,76 @@
         <v>1035</v>
       </c>
       <c r="B622" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B623" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B624" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B625" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B626" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B627" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B628" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B629" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B630" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B631" t="s">
         <v>1045</v>
@@ -11123,20 +11129,20 @@
         <v>1046</v>
       </c>
       <c r="B632" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B633" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B634" t="s">
         <v>1049</v>
@@ -11147,28 +11153,28 @@
         <v>1050</v>
       </c>
       <c r="B635" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B636" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B637" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B638" t="s">
         <v>1054</v>
@@ -11179,36 +11185,36 @@
         <v>1055</v>
       </c>
       <c r="B639" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B640" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B641" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B642" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B643" t="s">
         <v>1060</v>
@@ -11243,20 +11249,20 @@
         <v>1067</v>
       </c>
       <c r="B647" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B648" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B649" t="s">
         <v>1070</v>
@@ -11275,20 +11281,20 @@
         <v>1073</v>
       </c>
       <c r="B651" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B652" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B653" t="s">
         <v>1076</v>
@@ -11307,12 +11313,12 @@
         <v>1079</v>
       </c>
       <c r="B655" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B656" t="s">
         <v>1081</v>
@@ -11323,20 +11329,20 @@
         <v>1082</v>
       </c>
       <c r="B657" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B658" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B659" t="s">
         <v>1085</v>
@@ -11371,44 +11377,44 @@
         <v>1092</v>
       </c>
       <c r="B663" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B664" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B665" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B666" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B667" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B668" t="s">
         <v>1098</v>
@@ -11427,12 +11433,12 @@
         <v>1101</v>
       </c>
       <c r="B670" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B671" t="s">
         <v>1103</v>
@@ -11451,12 +11457,12 @@
         <v>1106</v>
       </c>
       <c r="B673" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B674" t="s">
         <v>1108</v>
@@ -11467,20 +11473,20 @@
         <v>1109</v>
       </c>
       <c r="B675" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B676" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B677" t="s">
         <v>1112</v>
@@ -11507,20 +11513,20 @@
         <v>1117</v>
       </c>
       <c r="B680" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B681" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B682" t="s">
         <v>1120</v>
@@ -11603,12 +11609,12 @@
         <v>1139</v>
       </c>
       <c r="B692" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B693" t="s">
         <v>1141</v>
@@ -11651,12 +11657,12 @@
         <v>1150</v>
       </c>
       <c r="B698" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B699" t="s">
         <v>1152</v>
@@ -11667,20 +11673,20 @@
         <v>1153</v>
       </c>
       <c r="B700" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B701" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B702" t="s">
         <v>1156</v>
@@ -11691,28 +11697,28 @@
         <v>1157</v>
       </c>
       <c r="B703" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B704" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B705" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B706" t="s">
         <v>1161</v>
@@ -11723,28 +11729,28 @@
         <v>1162</v>
       </c>
       <c r="B707" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B708" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B709" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B710" t="s">
         <v>1166</v>
@@ -11755,12 +11761,12 @@
         <v>1167</v>
       </c>
       <c r="B711" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B712" t="s">
         <v>1169</v>
@@ -11819,12 +11825,12 @@
         <v>1182</v>
       </c>
       <c r="B719" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B720" t="s">
         <v>1184</v>
@@ -11899,12 +11905,12 @@
         <v>1201</v>
       </c>
       <c r="B729" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B730" t="s">
         <v>1203</v>
@@ -11931,12 +11937,12 @@
         <v>1208</v>
       </c>
       <c r="B733" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B734" t="s">
         <v>1210</v>
@@ -11947,52 +11953,52 @@
         <v>1211</v>
       </c>
       <c r="B735" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B736" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B737" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B738" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B739" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B740" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B741" t="s">
         <v>1218</v>
@@ -12003,36 +12009,36 @@
         <v>1219</v>
       </c>
       <c r="B742" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B743" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B744" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B745" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B746" t="s">
         <v>1224</v>
@@ -12091,20 +12097,20 @@
         <v>1237</v>
       </c>
       <c r="B753" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B754" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B755" t="s">
         <v>1240</v>
@@ -12115,20 +12121,20 @@
         <v>1241</v>
       </c>
       <c r="B756" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B757" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B758" t="s">
         <v>1244</v>
@@ -12139,20 +12145,20 @@
         <v>1245</v>
       </c>
       <c r="B759" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B760" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B761" t="s">
         <v>1248</v>
@@ -12195,12 +12201,12 @@
         <v>1257</v>
       </c>
       <c r="B766" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B767" t="s">
         <v>1259</v>
@@ -12235,12 +12241,12 @@
         <v>1266</v>
       </c>
       <c r="B771" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B772" t="s">
         <v>1268</v>
@@ -12307,28 +12313,28 @@
         <v>1283</v>
       </c>
       <c r="B780" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B781" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B782" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B783" t="s">
         <v>1287</v>
@@ -12347,12 +12353,12 @@
         <v>1290</v>
       </c>
       <c r="B785" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B786" t="s">
         <v>1292</v>
@@ -12363,60 +12369,60 @@
         <v>1293</v>
       </c>
       <c r="B787" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B788" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B789" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B790" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B791" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B792" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B793" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B794" t="s">
         <v>1301</v>
@@ -12427,20 +12433,20 @@
         <v>1302</v>
       </c>
       <c r="B795" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B796" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B797" t="s">
         <v>1305</v>
@@ -12491,28 +12497,28 @@
         <v>1316</v>
       </c>
       <c r="B803" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B804" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B805" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B806" t="s">
         <v>1320</v>
@@ -12595,12 +12601,12 @@
         <v>1339</v>
       </c>
       <c r="B816" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B817" t="s">
         <v>1341</v>
@@ -12619,20 +12625,20 @@
         <v>1344</v>
       </c>
       <c r="B819" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B820" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B821" t="s">
         <v>1347</v>
@@ -12643,12 +12649,12 @@
         <v>1348</v>
       </c>
       <c r="B822" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B823" t="s">
         <v>1350</v>
@@ -12659,28 +12665,28 @@
         <v>1351</v>
       </c>
       <c r="B824" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B825" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B826" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B827" t="s">
         <v>1355</v>
@@ -12691,44 +12697,44 @@
         <v>1356</v>
       </c>
       <c r="B828" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B829" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B830" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B831" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B832" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B833" t="s">
         <v>1362</v>
@@ -12763,12 +12769,12 @@
         <v>1369</v>
       </c>
       <c r="B837" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B838" t="s">
         <v>1371</v>
@@ -12787,28 +12793,28 @@
         <v>1374</v>
       </c>
       <c r="B840" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B841" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B842" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B843" t="s">
         <v>1378</v>
@@ -12915,36 +12921,36 @@
         <v>1403</v>
       </c>
       <c r="B856" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B857" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B858" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B859" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B860" t="s">
         <v>1408</v>
@@ -12955,52 +12961,52 @@
         <v>1409</v>
       </c>
       <c r="B861" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B862" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B863" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B864" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B865" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B866" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B867" t="s">
         <v>1416</v>
@@ -13035,12 +13041,12 @@
         <v>1423</v>
       </c>
       <c r="B871" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B872" t="s">
         <v>1425</v>
@@ -13075,12 +13081,12 @@
         <v>1432</v>
       </c>
       <c r="B876" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B877" t="s">
         <v>1434</v>
@@ -13107,20 +13113,20 @@
         <v>1439</v>
       </c>
       <c r="B880" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B881" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B882" t="s">
         <v>1442</v>
@@ -13163,12 +13169,12 @@
         <v>1451</v>
       </c>
       <c r="B887" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B888" t="s">
         <v>1453</v>
@@ -13179,12 +13185,12 @@
         <v>1454</v>
       </c>
       <c r="B889" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B890" t="s">
         <v>1456</v>
@@ -13219,20 +13225,20 @@
         <v>1463</v>
       </c>
       <c r="B894" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B895" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B896" t="s">
         <v>1466</v>
@@ -13275,52 +13281,52 @@
         <v>1475</v>
       </c>
       <c r="B901" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B902" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B903" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B904" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B905" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B906" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B907" t="s">
         <v>1482</v>
@@ -13355,28 +13361,28 @@
         <v>1489</v>
       </c>
       <c r="B911" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B912" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B913" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B914" t="s">
         <v>1493</v>
@@ -13419,20 +13425,20 @@
         <v>1502</v>
       </c>
       <c r="B919" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B920" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B921" t="s">
         <v>1505</v>
@@ -13467,12 +13473,12 @@
         <v>1512</v>
       </c>
       <c r="B925" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B926" t="s">
         <v>1514</v>
@@ -13491,12 +13497,12 @@
         <v>1517</v>
       </c>
       <c r="B928" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B929" t="s">
         <v>1519</v>
@@ -13515,12 +13521,12 @@
         <v>1522</v>
       </c>
       <c r="B931" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B932" t="s">
         <v>1524</v>
@@ -13531,12 +13537,12 @@
         <v>1525</v>
       </c>
       <c r="B933" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B934" t="s">
         <v>1527</v>
@@ -13547,12 +13553,12 @@
         <v>1528</v>
       </c>
       <c r="B935" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B936" t="s">
         <v>1530</v>
@@ -13563,28 +13569,28 @@
         <v>1531</v>
       </c>
       <c r="B937" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B938" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B939" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B940" t="s">
         <v>1535</v>
@@ -13611,44 +13617,44 @@
         <v>1540</v>
       </c>
       <c r="B943" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B944" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B945" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B946" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B947" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B948" t="s">
         <v>1546</v>
@@ -13683,28 +13689,28 @@
         <v>1553</v>
       </c>
       <c r="B952" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B953" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B954" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B955" t="s">
         <v>1557</v>
@@ -13755,28 +13761,28 @@
         <v>1568</v>
       </c>
       <c r="B961" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B962" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B963" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B964" t="s">
         <v>1572</v>
@@ -13787,20 +13793,20 @@
         <v>1573</v>
       </c>
       <c r="B965" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B966" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B967" t="s">
         <v>1576</v>
@@ -13843,12 +13849,12 @@
         <v>1585</v>
       </c>
       <c r="B972" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B973" t="s">
         <v>1587</v>
@@ -13875,12 +13881,12 @@
         <v>1592</v>
       </c>
       <c r="B976" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B977" t="s">
         <v>1594</v>
@@ -13899,36 +13905,36 @@
         <v>1597</v>
       </c>
       <c r="B979" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B980" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B981" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B982" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B983" t="s">
         <v>1602</v>
@@ -13979,12 +13985,12 @@
         <v>1613</v>
       </c>
       <c r="B989" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B990" t="s">
         <v>1615</v>
@@ -14003,28 +14009,28 @@
         <v>1618</v>
       </c>
       <c r="B992" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B993" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B994" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B995" t="s">
         <v>1622</v>
@@ -14035,12 +14041,12 @@
         <v>1623</v>
       </c>
       <c r="B996" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B997" t="s">
         <v>1625</v>
@@ -14059,20 +14065,20 @@
         <v>1628</v>
       </c>
       <c r="B999" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1000" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1001" t="s">
         <v>1631</v>
@@ -14099,12 +14105,12 @@
         <v>1636</v>
       </c>
       <c r="B1004" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1005" t="s">
         <v>1638</v>
@@ -14123,12 +14129,12 @@
         <v>1641</v>
       </c>
       <c r="B1007" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1008" t="s">
         <v>1643</v>
@@ -14147,36 +14153,36 @@
         <v>1646</v>
       </c>
       <c r="B1010" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1011" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1012" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1013" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1014" t="s">
         <v>1651</v>
@@ -14195,12 +14201,12 @@
         <v>1654</v>
       </c>
       <c r="B1016" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1017" t="s">
         <v>1656</v>
@@ -14227,12 +14233,12 @@
         <v>1661</v>
       </c>
       <c r="B1020" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1021" t="s">
         <v>1663</v>
@@ -14243,20 +14249,20 @@
         <v>1664</v>
       </c>
       <c r="B1022" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1023" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B1024" t="s">
         <v>1667</v>
@@ -14267,12 +14273,12 @@
         <v>1668</v>
       </c>
       <c r="B1025" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1026" t="s">
         <v>1670</v>
@@ -14283,20 +14289,20 @@
         <v>1671</v>
       </c>
       <c r="B1027" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1028" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1029" t="s">
         <v>1674</v>
@@ -14307,20 +14313,20 @@
         <v>1675</v>
       </c>
       <c r="B1030" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1031" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1032" t="s">
         <v>1678</v>
@@ -14331,12 +14337,12 @@
         <v>1679</v>
       </c>
       <c r="B1033" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1034" t="s">
         <v>1681</v>
@@ -14371,12 +14377,12 @@
         <v>1688</v>
       </c>
       <c r="B1038" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1039" t="s">
         <v>1690</v>
@@ -14387,12 +14393,12 @@
         <v>1691</v>
       </c>
       <c r="B1040" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1041" t="s">
         <v>1693</v>
@@ -14427,36 +14433,36 @@
         <v>1700</v>
       </c>
       <c r="B1045" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1046" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1047" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1048" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1049" t="s">
         <v>1705</v>
@@ -14507,12 +14513,12 @@
         <v>1716</v>
       </c>
       <c r="B1055" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1056" t="s">
         <v>1718</v>
@@ -14523,20 +14529,20 @@
         <v>1719</v>
       </c>
       <c r="B1057" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1058" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1059" t="s">
         <v>1722</v>
@@ -14587,12 +14593,12 @@
         <v>1733</v>
       </c>
       <c r="B1065" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1066" t="s">
         <v>1735</v>
@@ -14603,20 +14609,20 @@
         <v>1736</v>
       </c>
       <c r="B1067" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1068" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1069" t="s">
         <v>1739</v>
@@ -14627,44 +14633,44 @@
         <v>1740</v>
       </c>
       <c r="B1070" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1071" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1072" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1073" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1074" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1075" t="s">
         <v>1746</v>
@@ -14683,20 +14689,20 @@
         <v>1749</v>
       </c>
       <c r="B1077" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1078" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1079" t="s">
         <v>1752</v>
@@ -14715,12 +14721,12 @@
         <v>1755</v>
       </c>
       <c r="B1081" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1082" t="s">
         <v>1757</v>
@@ -14755,20 +14761,20 @@
         <v>1764</v>
       </c>
       <c r="B1086" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1087" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1088" t="s">
         <v>1767</v>
@@ -14811,12 +14817,12 @@
         <v>1776</v>
       </c>
       <c r="B1093" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1094" t="s">
         <v>1778</v>
@@ -14835,12 +14841,12 @@
         <v>1781</v>
       </c>
       <c r="B1096" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B1097" t="s">
         <v>1783</v>
@@ -14851,20 +14857,20 @@
         <v>1784</v>
       </c>
       <c r="B1098" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B1099" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B1100" t="s">
         <v>1787</v>
@@ -14883,12 +14889,12 @@
         <v>1790</v>
       </c>
       <c r="B1102" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B1103" t="s">
         <v>1792</v>
@@ -14915,12 +14921,12 @@
         <v>1797</v>
       </c>
       <c r="B1106" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1107" t="s">
         <v>1799</v>
@@ -14963,12 +14969,12 @@
         <v>1808</v>
       </c>
       <c r="B1112" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1113" t="s">
         <v>1810</v>
@@ -15075,44 +15081,44 @@
         <v>1835</v>
       </c>
       <c r="B1126" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1127" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1128" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1129" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1130" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1131" t="s">
         <v>1841</v>
@@ -15131,28 +15137,28 @@
         <v>1844</v>
       </c>
       <c r="B1133" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1134" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1135" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1136" t="s">
         <v>1848</v>
@@ -15219,12 +15225,12 @@
         <v>1863</v>
       </c>
       <c r="B1144" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B1145" t="s">
         <v>1865</v>
@@ -15235,12 +15241,12 @@
         <v>1866</v>
       </c>
       <c r="B1146" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B1147" t="s">
         <v>1868</v>
@@ -15275,44 +15281,44 @@
         <v>1875</v>
       </c>
       <c r="B1151" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1152" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B1153" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B1154" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1155" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1156" t="s">
         <v>1881</v>
@@ -15331,20 +15337,20 @@
         <v>1884</v>
       </c>
       <c r="B1158" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1159" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1160" t="s">
         <v>1887</v>
@@ -15355,44 +15361,44 @@
         <v>1888</v>
       </c>
       <c r="B1161" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1162" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1163" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1164" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1165" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1166" t="s">
         <v>1894</v>
@@ -15403,27 +15409,35 @@
         <v>1895</v>
       </c>
       <c r="B1167" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B1168" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B1169" t="s">
-        <v>1897</v>
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1899</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/id/headTags.xlsx
+++ b/lang/id/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1902">
   <si>
     <t>en</t>
   </si>
@@ -4607,6 +4607,12 @@
   </si>
   <si>
     <t>Tujuh Dosa yang Mematikan</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Bayangan Raksasa</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -6063,7 +6069,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13561,12 +13567,12 @@
         <v>1530</v>
       </c>
       <c r="B936" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B937" t="s">
         <v>1532</v>
@@ -13577,28 +13583,28 @@
         <v>1533</v>
       </c>
       <c r="B938" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B939" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B940" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B941" t="s">
         <v>1537</v>
@@ -13625,44 +13631,44 @@
         <v>1542</v>
       </c>
       <c r="B944" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B945" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B946" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B947" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B948" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B949" t="s">
         <v>1548</v>
@@ -13697,28 +13703,28 @@
         <v>1555</v>
       </c>
       <c r="B953" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B954" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B955" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B956" t="s">
         <v>1559</v>
@@ -13769,28 +13775,28 @@
         <v>1570</v>
       </c>
       <c r="B962" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B963" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B964" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B965" t="s">
         <v>1574</v>
@@ -13801,20 +13807,20 @@
         <v>1575</v>
       </c>
       <c r="B966" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B967" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B968" t="s">
         <v>1578</v>
@@ -13857,12 +13863,12 @@
         <v>1587</v>
       </c>
       <c r="B973" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B974" t="s">
         <v>1589</v>
@@ -13889,12 +13895,12 @@
         <v>1594</v>
       </c>
       <c r="B977" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B978" t="s">
         <v>1596</v>
@@ -13913,36 +13919,36 @@
         <v>1599</v>
       </c>
       <c r="B980" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B981" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B982" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B983" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B984" t="s">
         <v>1604</v>
@@ -13993,12 +13999,12 @@
         <v>1615</v>
       </c>
       <c r="B990" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B991" t="s">
         <v>1617</v>
@@ -14017,28 +14023,28 @@
         <v>1620</v>
       </c>
       <c r="B993" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B994" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B995" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B996" t="s">
         <v>1624</v>
@@ -14049,12 +14055,12 @@
         <v>1625</v>
       </c>
       <c r="B997" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B998" t="s">
         <v>1627</v>
@@ -14073,20 +14079,20 @@
         <v>1630</v>
       </c>
       <c r="B1000" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1001" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1002" t="s">
         <v>1633</v>
@@ -14113,12 +14119,12 @@
         <v>1638</v>
       </c>
       <c r="B1005" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1006" t="s">
         <v>1640</v>
@@ -14137,12 +14143,12 @@
         <v>1643</v>
       </c>
       <c r="B1008" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1009" t="s">
         <v>1645</v>
@@ -14161,36 +14167,36 @@
         <v>1648</v>
       </c>
       <c r="B1011" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1012" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1013" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1014" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1015" t="s">
         <v>1653</v>
@@ -14209,12 +14215,12 @@
         <v>1656</v>
       </c>
       <c r="B1017" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1018" t="s">
         <v>1658</v>
@@ -14241,12 +14247,12 @@
         <v>1663</v>
       </c>
       <c r="B1021" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B1022" t="s">
         <v>1665</v>
@@ -14257,20 +14263,20 @@
         <v>1666</v>
       </c>
       <c r="B1023" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1024" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B1025" t="s">
         <v>1669</v>
@@ -14281,12 +14287,12 @@
         <v>1670</v>
       </c>
       <c r="B1026" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B1027" t="s">
         <v>1672</v>
@@ -14297,20 +14303,20 @@
         <v>1673</v>
       </c>
       <c r="B1028" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1029" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1030" t="s">
         <v>1676</v>
@@ -14321,20 +14327,20 @@
         <v>1677</v>
       </c>
       <c r="B1031" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1032" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1033" t="s">
         <v>1680</v>
@@ -14345,12 +14351,12 @@
         <v>1681</v>
       </c>
       <c r="B1034" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1035" t="s">
         <v>1683</v>
@@ -14385,12 +14391,12 @@
         <v>1690</v>
       </c>
       <c r="B1039" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1040" t="s">
         <v>1692</v>
@@ -14401,12 +14407,12 @@
         <v>1693</v>
       </c>
       <c r="B1041" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1042" t="s">
         <v>1695</v>
@@ -14441,36 +14447,36 @@
         <v>1702</v>
       </c>
       <c r="B1046" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1047" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1048" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1049" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1050" t="s">
         <v>1707</v>
@@ -14521,12 +14527,12 @@
         <v>1718</v>
       </c>
       <c r="B1056" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1057" t="s">
         <v>1720</v>
@@ -14537,20 +14543,20 @@
         <v>1721</v>
       </c>
       <c r="B1058" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1059" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1060" t="s">
         <v>1724</v>
@@ -14601,12 +14607,12 @@
         <v>1735</v>
       </c>
       <c r="B1066" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1067" t="s">
         <v>1737</v>
@@ -14617,20 +14623,20 @@
         <v>1738</v>
       </c>
       <c r="B1068" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1069" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1070" t="s">
         <v>1741</v>
@@ -14641,44 +14647,44 @@
         <v>1742</v>
       </c>
       <c r="B1071" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1072" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1073" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1074" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1075" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1076" t="s">
         <v>1748</v>
@@ -14697,20 +14703,20 @@
         <v>1751</v>
       </c>
       <c r="B1078" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1079" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1080" t="s">
         <v>1754</v>
@@ -14729,12 +14735,12 @@
         <v>1757</v>
       </c>
       <c r="B1082" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1083" t="s">
         <v>1759</v>
@@ -14769,20 +14775,20 @@
         <v>1766</v>
       </c>
       <c r="B1087" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1088" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1089" t="s">
         <v>1769</v>
@@ -14825,12 +14831,12 @@
         <v>1778</v>
       </c>
       <c r="B1094" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1095" t="s">
         <v>1780</v>
@@ -14849,12 +14855,12 @@
         <v>1783</v>
       </c>
       <c r="B1097" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B1098" t="s">
         <v>1785</v>
@@ -14865,20 +14871,20 @@
         <v>1786</v>
       </c>
       <c r="B1099" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B1100" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B1101" t="s">
         <v>1789</v>
@@ -14897,12 +14903,12 @@
         <v>1792</v>
       </c>
       <c r="B1103" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B1104" t="s">
         <v>1794</v>
@@ -14929,12 +14935,12 @@
         <v>1799</v>
       </c>
       <c r="B1107" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1108" t="s">
         <v>1801</v>
@@ -14977,12 +14983,12 @@
         <v>1810</v>
       </c>
       <c r="B1113" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1114" t="s">
         <v>1812</v>
@@ -15089,44 +15095,44 @@
         <v>1837</v>
       </c>
       <c r="B1127" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1128" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1129" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1130" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1131" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1132" t="s">
         <v>1843</v>
@@ -15145,28 +15151,28 @@
         <v>1846</v>
       </c>
       <c r="B1134" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1135" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1136" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1137" t="s">
         <v>1850</v>
@@ -15233,12 +15239,12 @@
         <v>1865</v>
       </c>
       <c r="B1145" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B1146" t="s">
         <v>1867</v>
@@ -15249,12 +15255,12 @@
         <v>1868</v>
       </c>
       <c r="B1147" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1148" t="s">
         <v>1870</v>
@@ -15289,44 +15295,44 @@
         <v>1877</v>
       </c>
       <c r="B1152" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B1153" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1154" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1155" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B1156" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1157" t="s">
         <v>1883</v>
@@ -15345,20 +15351,20 @@
         <v>1886</v>
       </c>
       <c r="B1159" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1160" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B1161" t="s">
         <v>1889</v>
@@ -15369,44 +15375,44 @@
         <v>1890</v>
       </c>
       <c r="B1162" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1163" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1164" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1165" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1166" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B1167" t="s">
         <v>1896</v>
@@ -15417,27 +15423,35 @@
         <v>1897</v>
       </c>
       <c r="B1168" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B1169" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B1170" t="s">
-        <v>1899</v>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1901</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/id/headTags.xlsx
+++ b/lang/id/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1906">
   <si>
     <t>en</t>
   </si>
@@ -3671,6 +3671,12 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Gunung Kekacauan</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -6075,7 +6081,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -12021,36 +12027,36 @@
         <v>1220</v>
       </c>
       <c r="B742" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B743" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B744" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B745" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B746" t="s">
         <v>1225</v>
@@ -12109,20 +12115,20 @@
         <v>1238</v>
       </c>
       <c r="B753" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B754" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B755" t="s">
         <v>1241</v>
@@ -12133,20 +12139,20 @@
         <v>1242</v>
       </c>
       <c r="B756" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B757" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B758" t="s">
         <v>1245</v>
@@ -12157,20 +12163,20 @@
         <v>1246</v>
       </c>
       <c r="B759" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B760" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B761" t="s">
         <v>1249</v>
@@ -12213,12 +12219,12 @@
         <v>1258</v>
       </c>
       <c r="B766" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B767" t="s">
         <v>1260</v>
@@ -12253,12 +12259,12 @@
         <v>1267</v>
       </c>
       <c r="B771" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B772" t="s">
         <v>1269</v>
@@ -12325,28 +12331,28 @@
         <v>1284</v>
       </c>
       <c r="B780" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B781" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B782" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B783" t="s">
         <v>1288</v>
@@ -12365,12 +12371,12 @@
         <v>1291</v>
       </c>
       <c r="B785" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B786" t="s">
         <v>1293</v>
@@ -12381,60 +12387,60 @@
         <v>1294</v>
       </c>
       <c r="B787" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B788" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B789" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B790" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B791" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B792" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B793" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B794" t="s">
         <v>1302</v>
@@ -12445,20 +12451,20 @@
         <v>1303</v>
       </c>
       <c r="B795" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B796" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B797" t="s">
         <v>1306</v>
@@ -12509,28 +12515,28 @@
         <v>1317</v>
       </c>
       <c r="B803" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B804" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B805" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B806" t="s">
         <v>1321</v>
@@ -12613,12 +12619,12 @@
         <v>1340</v>
       </c>
       <c r="B816" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B817" t="s">
         <v>1342</v>
@@ -12637,20 +12643,20 @@
         <v>1345</v>
       </c>
       <c r="B819" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B820" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B821" t="s">
         <v>1348</v>
@@ -12661,12 +12667,12 @@
         <v>1349</v>
       </c>
       <c r="B822" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B823" t="s">
         <v>1351</v>
@@ -12677,28 +12683,28 @@
         <v>1352</v>
       </c>
       <c r="B824" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B825" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B826" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B827" t="s">
         <v>1356</v>
@@ -12709,44 +12715,44 @@
         <v>1357</v>
       </c>
       <c r="B828" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B829" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B830" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B831" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B832" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B833" t="s">
         <v>1363</v>
@@ -12781,12 +12787,12 @@
         <v>1370</v>
       </c>
       <c r="B837" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B838" t="s">
         <v>1372</v>
@@ -12805,28 +12811,28 @@
         <v>1375</v>
       </c>
       <c r="B840" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B841" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B842" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B843" t="s">
         <v>1379</v>
@@ -12933,36 +12939,36 @@
         <v>1404</v>
       </c>
       <c r="B856" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B857" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B858" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B859" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B860" t="s">
         <v>1409</v>
@@ -12973,52 +12979,52 @@
         <v>1410</v>
       </c>
       <c r="B861" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B862" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B863" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B864" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B865" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B866" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B867" t="s">
         <v>1417</v>
@@ -13053,12 +13059,12 @@
         <v>1424</v>
       </c>
       <c r="B871" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B872" t="s">
         <v>1426</v>
@@ -13093,12 +13099,12 @@
         <v>1433</v>
       </c>
       <c r="B876" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B877" t="s">
         <v>1435</v>
@@ -13125,20 +13131,20 @@
         <v>1440</v>
       </c>
       <c r="B880" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B881" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B882" t="s">
         <v>1443</v>
@@ -13181,12 +13187,12 @@
         <v>1452</v>
       </c>
       <c r="B887" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B888" t="s">
         <v>1454</v>
@@ -13197,12 +13203,12 @@
         <v>1455</v>
       </c>
       <c r="B889" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B890" t="s">
         <v>1457</v>
@@ -13237,20 +13243,20 @@
         <v>1464</v>
       </c>
       <c r="B894" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B895" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B896" t="s">
         <v>1467</v>
@@ -13293,52 +13299,52 @@
         <v>1476</v>
       </c>
       <c r="B901" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B902" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B903" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B904" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B905" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B906" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B907" t="s">
         <v>1483</v>
@@ -13373,28 +13379,28 @@
         <v>1490</v>
       </c>
       <c r="B911" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B912" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B913" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B914" t="s">
         <v>1494</v>
@@ -13437,20 +13443,20 @@
         <v>1503</v>
       </c>
       <c r="B919" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B920" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B921" t="s">
         <v>1506</v>
@@ -13485,12 +13491,12 @@
         <v>1513</v>
       </c>
       <c r="B925" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B926" t="s">
         <v>1515</v>
@@ -13509,12 +13515,12 @@
         <v>1518</v>
       </c>
       <c r="B928" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B929" t="s">
         <v>1520</v>
@@ -13533,12 +13539,12 @@
         <v>1523</v>
       </c>
       <c r="B931" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B932" t="s">
         <v>1525</v>
@@ -13549,12 +13555,12 @@
         <v>1526</v>
       </c>
       <c r="B933" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B934" t="s">
         <v>1528</v>
@@ -13573,12 +13579,12 @@
         <v>1531</v>
       </c>
       <c r="B936" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B937" t="s">
         <v>1533</v>
@@ -13589,28 +13595,28 @@
         <v>1534</v>
       </c>
       <c r="B938" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B939" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B940" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B941" t="s">
         <v>1538</v>
@@ -13637,44 +13643,44 @@
         <v>1543</v>
       </c>
       <c r="B944" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B945" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B946" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B947" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B948" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B949" t="s">
         <v>1549</v>
@@ -13709,28 +13715,28 @@
         <v>1556</v>
       </c>
       <c r="B953" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B954" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B955" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B956" t="s">
         <v>1560</v>
@@ -13781,28 +13787,28 @@
         <v>1571</v>
       </c>
       <c r="B962" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B963" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B964" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B965" t="s">
         <v>1575</v>
@@ -13813,20 +13819,20 @@
         <v>1576</v>
       </c>
       <c r="B966" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B967" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B968" t="s">
         <v>1579</v>
@@ -13869,12 +13875,12 @@
         <v>1588</v>
       </c>
       <c r="B973" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B974" t="s">
         <v>1590</v>
@@ -13901,12 +13907,12 @@
         <v>1595</v>
       </c>
       <c r="B977" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B978" t="s">
         <v>1597</v>
@@ -13925,36 +13931,36 @@
         <v>1600</v>
       </c>
       <c r="B980" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B981" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B982" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B983" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B984" t="s">
         <v>1605</v>
@@ -14005,12 +14011,12 @@
         <v>1616</v>
       </c>
       <c r="B990" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B991" t="s">
         <v>1618</v>
@@ -14029,28 +14035,28 @@
         <v>1621</v>
       </c>
       <c r="B993" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B994" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B995" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B996" t="s">
         <v>1625</v>
@@ -14061,12 +14067,12 @@
         <v>1626</v>
       </c>
       <c r="B997" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B998" t="s">
         <v>1628</v>
@@ -14085,20 +14091,20 @@
         <v>1631</v>
       </c>
       <c r="B1000" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1001" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1002" t="s">
         <v>1634</v>
@@ -14125,12 +14131,12 @@
         <v>1639</v>
       </c>
       <c r="B1005" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1006" t="s">
         <v>1641</v>
@@ -14149,12 +14155,12 @@
         <v>1644</v>
       </c>
       <c r="B1008" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1009" t="s">
         <v>1646</v>
@@ -14173,36 +14179,36 @@
         <v>1649</v>
       </c>
       <c r="B1011" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1012" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1013" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1014" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1015" t="s">
         <v>1654</v>
@@ -14221,12 +14227,12 @@
         <v>1657</v>
       </c>
       <c r="B1017" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1018" t="s">
         <v>1659</v>
@@ -14253,12 +14259,12 @@
         <v>1664</v>
       </c>
       <c r="B1021" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1022" t="s">
         <v>1666</v>
@@ -14269,20 +14275,20 @@
         <v>1667</v>
       </c>
       <c r="B1023" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B1024" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1025" t="s">
         <v>1670</v>
@@ -14293,12 +14299,12 @@
         <v>1671</v>
       </c>
       <c r="B1026" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1027" t="s">
         <v>1673</v>
@@ -14309,20 +14315,20 @@
         <v>1674</v>
       </c>
       <c r="B1028" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1029" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1030" t="s">
         <v>1677</v>
@@ -14333,20 +14339,20 @@
         <v>1678</v>
       </c>
       <c r="B1031" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1032" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1033" t="s">
         <v>1681</v>
@@ -14357,12 +14363,12 @@
         <v>1682</v>
       </c>
       <c r="B1034" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1035" t="s">
         <v>1684</v>
@@ -14397,12 +14403,12 @@
         <v>1691</v>
       </c>
       <c r="B1039" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1040" t="s">
         <v>1693</v>
@@ -14413,12 +14419,12 @@
         <v>1694</v>
       </c>
       <c r="B1041" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1042" t="s">
         <v>1696</v>
@@ -14461,36 +14467,36 @@
         <v>1705</v>
       </c>
       <c r="B1047" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1048" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1049" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1050" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1051" t="s">
         <v>1710</v>
@@ -14541,12 +14547,12 @@
         <v>1721</v>
       </c>
       <c r="B1057" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1058" t="s">
         <v>1723</v>
@@ -14557,20 +14563,20 @@
         <v>1724</v>
       </c>
       <c r="B1059" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1060" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1061" t="s">
         <v>1727</v>
@@ -14621,12 +14627,12 @@
         <v>1738</v>
       </c>
       <c r="B1067" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1068" t="s">
         <v>1740</v>
@@ -14637,20 +14643,20 @@
         <v>1741</v>
       </c>
       <c r="B1069" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1070" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1071" t="s">
         <v>1744</v>
@@ -14661,44 +14667,44 @@
         <v>1745</v>
       </c>
       <c r="B1072" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1073" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1074" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1075" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1076" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1077" t="s">
         <v>1751</v>
@@ -14717,20 +14723,20 @@
         <v>1754</v>
       </c>
       <c r="B1079" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1080" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1081" t="s">
         <v>1757</v>
@@ -14749,12 +14755,12 @@
         <v>1760</v>
       </c>
       <c r="B1083" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1084" t="s">
         <v>1762</v>
@@ -14789,20 +14795,20 @@
         <v>1769</v>
       </c>
       <c r="B1088" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1089" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1090" t="s">
         <v>1772</v>
@@ -14845,12 +14851,12 @@
         <v>1781</v>
       </c>
       <c r="B1095" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B1096" t="s">
         <v>1783</v>
@@ -14869,12 +14875,12 @@
         <v>1786</v>
       </c>
       <c r="B1098" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B1099" t="s">
         <v>1788</v>
@@ -14885,20 +14891,20 @@
         <v>1789</v>
       </c>
       <c r="B1100" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B1101" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B1102" t="s">
         <v>1792</v>
@@ -14917,12 +14923,12 @@
         <v>1795</v>
       </c>
       <c r="B1104" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B1105" t="s">
         <v>1797</v>
@@ -14949,12 +14955,12 @@
         <v>1802</v>
       </c>
       <c r="B1108" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1109" t="s">
         <v>1804</v>
@@ -14997,12 +15003,12 @@
         <v>1813</v>
       </c>
       <c r="B1114" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B1115" t="s">
         <v>1815</v>
@@ -15109,44 +15115,44 @@
         <v>1840</v>
       </c>
       <c r="B1128" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1129" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1130" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1131" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1132" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1133" t="s">
         <v>1846</v>
@@ -15165,28 +15171,28 @@
         <v>1849</v>
       </c>
       <c r="B1135" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1136" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1137" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1138" t="s">
         <v>1853</v>
@@ -15253,12 +15259,12 @@
         <v>1868</v>
       </c>
       <c r="B1146" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1147" t="s">
         <v>1870</v>
@@ -15269,12 +15275,12 @@
         <v>1871</v>
       </c>
       <c r="B1148" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B1149" t="s">
         <v>1873</v>
@@ -15309,44 +15315,44 @@
         <v>1880</v>
       </c>
       <c r="B1153" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B1154" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1155" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B1156" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1157" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1158" t="s">
         <v>1886</v>
@@ -15365,20 +15371,20 @@
         <v>1889</v>
       </c>
       <c r="B1160" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1161" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1162" t="s">
         <v>1892</v>
@@ -15389,44 +15395,44 @@
         <v>1893</v>
       </c>
       <c r="B1163" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1164" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B1165" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B1166" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B1167" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B1168" t="s">
         <v>1899</v>
@@ -15437,35 +15443,43 @@
         <v>1900</v>
       </c>
       <c r="B1169" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B1170" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1171" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B1172" t="s">
-        <v>1903</v>
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1905</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/id/headTags.xlsx
+++ b/lang/id/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1908">
   <si>
     <t>en</t>
   </si>
@@ -2102,6 +2102,12 @@
   </si>
   <si>
     <t>Font (Pelangi)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Font (Batu Pasir Pahat Merah)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -6081,7 +6087,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9459,12 +9465,12 @@
         <v>705</v>
       </c>
       <c r="B421" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B422" t="s">
         <v>707</v>
@@ -9491,12 +9497,12 @@
         <v>712</v>
       </c>
       <c r="B425" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B426" t="s">
         <v>714</v>
@@ -9531,12 +9537,12 @@
         <v>721</v>
       </c>
       <c r="B430" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B431" t="s">
         <v>723</v>
@@ -9555,12 +9561,12 @@
         <v>726</v>
       </c>
       <c r="B433" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B434" t="s">
         <v>728</v>
@@ -9571,12 +9577,12 @@
         <v>729</v>
       </c>
       <c r="B435" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B436" t="s">
         <v>731</v>
@@ -9635,12 +9641,12 @@
         <v>744</v>
       </c>
       <c r="B443" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B444" t="s">
         <v>746</v>
@@ -9651,12 +9657,12 @@
         <v>747</v>
       </c>
       <c r="B445" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B446" t="s">
         <v>749</v>
@@ -9667,12 +9673,12 @@
         <v>750</v>
       </c>
       <c r="B447" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B448" t="s">
         <v>752</v>
@@ -9683,12 +9689,12 @@
         <v>753</v>
       </c>
       <c r="B449" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B450" t="s">
         <v>755</v>
@@ -9707,12 +9713,12 @@
         <v>758</v>
       </c>
       <c r="B452" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B453" t="s">
         <v>760</v>
@@ -9787,36 +9793,36 @@
         <v>777</v>
       </c>
       <c r="B462" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B463" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B464" t="s">
-        <v>522</v>
+        <v>780</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B465" t="s">
-        <v>780</v>
+        <v>522</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B466" t="s">
         <v>782</v>
@@ -9827,15 +9833,15 @@
         <v>783</v>
       </c>
       <c r="B467" t="s">
-        <v>138</v>
+        <v>784</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B468" t="s">
-        <v>785</v>
+        <v>138</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -9851,44 +9857,44 @@
         <v>788</v>
       </c>
       <c r="B470" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B471" t="s">
-        <v>522</v>
+        <v>790</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B472" t="s">
-        <v>790</v>
+        <v>522</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B473" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B474" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B475" t="s">
         <v>794</v>
@@ -9915,12 +9921,12 @@
         <v>799</v>
       </c>
       <c r="B478" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B479" t="s">
         <v>801</v>
@@ -9931,12 +9937,12 @@
         <v>802</v>
       </c>
       <c r="B480" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B481" t="s">
         <v>804</v>
@@ -9955,52 +9961,52 @@
         <v>807</v>
       </c>
       <c r="B483" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B484" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B485" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B486" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B487" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B488" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B489" t="s">
         <v>814</v>
@@ -10163,12 +10169,12 @@
         <v>853</v>
       </c>
       <c r="B509" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B510" t="s">
         <v>855</v>
@@ -10179,28 +10185,28 @@
         <v>856</v>
       </c>
       <c r="B511" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B512" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B513" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B514" t="s">
         <v>860</v>
@@ -10227,28 +10233,28 @@
         <v>865</v>
       </c>
       <c r="B517" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B518" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B519" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B520" t="s">
         <v>869</v>
@@ -10275,12 +10281,12 @@
         <v>874</v>
       </c>
       <c r="B523" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B524" t="s">
         <v>876</v>
@@ -10331,12 +10337,12 @@
         <v>887</v>
       </c>
       <c r="B530" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B531" t="s">
         <v>889</v>
@@ -10355,20 +10361,20 @@
         <v>892</v>
       </c>
       <c r="B533" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B534" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B535" t="s">
         <v>895</v>
@@ -10379,44 +10385,44 @@
         <v>896</v>
       </c>
       <c r="B536" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B537" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B538" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B539" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B540" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B541" t="s">
         <v>902</v>
@@ -10443,20 +10449,20 @@
         <v>907</v>
       </c>
       <c r="B544" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B545" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B546" t="s">
         <v>910</v>
@@ -10467,12 +10473,12 @@
         <v>911</v>
       </c>
       <c r="B547" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B548" t="s">
         <v>913</v>
@@ -10483,28 +10489,28 @@
         <v>914</v>
       </c>
       <c r="B549" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B550" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B551" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B552" t="s">
         <v>918</v>
@@ -10515,12 +10521,12 @@
         <v>919</v>
       </c>
       <c r="B553" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B554" t="s">
         <v>921</v>
@@ -10587,20 +10593,20 @@
         <v>936</v>
       </c>
       <c r="B562" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B563" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B564" t="s">
         <v>939</v>
@@ -10619,12 +10625,12 @@
         <v>942</v>
       </c>
       <c r="B566" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B567" t="s">
         <v>944</v>
@@ -10643,12 +10649,12 @@
         <v>947</v>
       </c>
       <c r="B569" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B570" t="s">
         <v>949</v>
@@ -10675,12 +10681,12 @@
         <v>954</v>
       </c>
       <c r="B573" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B574" t="s">
         <v>956</v>
@@ -10691,12 +10697,12 @@
         <v>957</v>
       </c>
       <c r="B575" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B576" t="s">
         <v>959</v>
@@ -10707,12 +10713,12 @@
         <v>960</v>
       </c>
       <c r="B577" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B578" t="s">
         <v>962</v>
@@ -10731,36 +10737,36 @@
         <v>965</v>
       </c>
       <c r="B580" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B581" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B582" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B583" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B584" t="s">
         <v>970</v>
@@ -10771,12 +10777,12 @@
         <v>971</v>
       </c>
       <c r="B585" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B586" t="s">
         <v>973</v>
@@ -10819,12 +10825,12 @@
         <v>982</v>
       </c>
       <c r="B591" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B592" t="s">
         <v>984</v>
@@ -10891,12 +10897,12 @@
         <v>999</v>
       </c>
       <c r="B600" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B601" t="s">
         <v>1001</v>
@@ -10915,12 +10921,12 @@
         <v>1004</v>
       </c>
       <c r="B603" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B604" t="s">
         <v>1006</v>
@@ -10963,28 +10969,28 @@
         <v>1015</v>
       </c>
       <c r="B609" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B610" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B611" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B612" t="s">
         <v>1019</v>
@@ -10995,12 +11001,12 @@
         <v>1020</v>
       </c>
       <c r="B613" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B614" t="s">
         <v>1022</v>
@@ -11027,12 +11033,12 @@
         <v>1027</v>
       </c>
       <c r="B617" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B618" t="s">
         <v>1029</v>
@@ -11067,76 +11073,76 @@
         <v>1036</v>
       </c>
       <c r="B622" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B623" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B624" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B625" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B626" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B627" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B628" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B629" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B630" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B631" t="s">
         <v>1046</v>
@@ -11147,20 +11153,20 @@
         <v>1047</v>
       </c>
       <c r="B632" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B633" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B634" t="s">
         <v>1050</v>
@@ -11171,28 +11177,28 @@
         <v>1051</v>
       </c>
       <c r="B635" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B636" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B637" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B638" t="s">
         <v>1055</v>
@@ -11203,36 +11209,36 @@
         <v>1056</v>
       </c>
       <c r="B639" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B640" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B641" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B642" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B643" t="s">
         <v>1061</v>
@@ -11267,20 +11273,20 @@
         <v>1068</v>
       </c>
       <c r="B647" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B648" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B649" t="s">
         <v>1071</v>
@@ -11299,20 +11305,20 @@
         <v>1074</v>
       </c>
       <c r="B651" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B652" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B653" t="s">
         <v>1077</v>
@@ -11331,12 +11337,12 @@
         <v>1080</v>
       </c>
       <c r="B655" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B656" t="s">
         <v>1082</v>
@@ -11347,20 +11353,20 @@
         <v>1083</v>
       </c>
       <c r="B657" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B658" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B659" t="s">
         <v>1086</v>
@@ -11395,44 +11401,44 @@
         <v>1093</v>
       </c>
       <c r="B663" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B664" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B665" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B666" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B667" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B668" t="s">
         <v>1099</v>
@@ -11451,12 +11457,12 @@
         <v>1102</v>
       </c>
       <c r="B670" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B671" t="s">
         <v>1104</v>
@@ -11475,12 +11481,12 @@
         <v>1107</v>
       </c>
       <c r="B673" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B674" t="s">
         <v>1109</v>
@@ -11491,20 +11497,20 @@
         <v>1110</v>
       </c>
       <c r="B675" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B676" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B677" t="s">
         <v>1113</v>
@@ -11531,20 +11537,20 @@
         <v>1118</v>
       </c>
       <c r="B680" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B681" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B682" t="s">
         <v>1121</v>
@@ -11627,12 +11633,12 @@
         <v>1140</v>
       </c>
       <c r="B692" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B693" t="s">
         <v>1142</v>
@@ -11675,12 +11681,12 @@
         <v>1151</v>
       </c>
       <c r="B698" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B699" t="s">
         <v>1153</v>
@@ -11691,20 +11697,20 @@
         <v>1154</v>
       </c>
       <c r="B700" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B701" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B702" t="s">
         <v>1157</v>
@@ -11715,28 +11721,28 @@
         <v>1158</v>
       </c>
       <c r="B703" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B704" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B705" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B706" t="s">
         <v>1162</v>
@@ -11747,28 +11753,28 @@
         <v>1163</v>
       </c>
       <c r="B707" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B708" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B709" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B710" t="s">
         <v>1167</v>
@@ -11779,12 +11785,12 @@
         <v>1168</v>
       </c>
       <c r="B711" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B712" t="s">
         <v>1170</v>
@@ -11843,12 +11849,12 @@
         <v>1183</v>
       </c>
       <c r="B719" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B720" t="s">
         <v>1185</v>
@@ -11923,12 +11929,12 @@
         <v>1202</v>
       </c>
       <c r="B729" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B730" t="s">
         <v>1204</v>
@@ -11955,12 +11961,12 @@
         <v>1209</v>
       </c>
       <c r="B733" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B734" t="s">
         <v>1211</v>
@@ -11971,52 +11977,52 @@
         <v>1212</v>
       </c>
       <c r="B735" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B736" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B737" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B738" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B739" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B740" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B741" t="s">
         <v>1219</v>
@@ -12035,36 +12041,36 @@
         <v>1222</v>
       </c>
       <c r="B743" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B744" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B745" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B746" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B747" t="s">
         <v>1227</v>
@@ -12123,20 +12129,20 @@
         <v>1240</v>
       </c>
       <c r="B754" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B755" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B756" t="s">
         <v>1243</v>
@@ -12147,20 +12153,20 @@
         <v>1244</v>
       </c>
       <c r="B757" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B758" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B759" t="s">
         <v>1247</v>
@@ -12171,20 +12177,20 @@
         <v>1248</v>
       </c>
       <c r="B760" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B761" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B762" t="s">
         <v>1251</v>
@@ -12227,12 +12233,12 @@
         <v>1260</v>
       </c>
       <c r="B767" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B768" t="s">
         <v>1262</v>
@@ -12267,12 +12273,12 @@
         <v>1269</v>
       </c>
       <c r="B772" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B773" t="s">
         <v>1271</v>
@@ -12339,28 +12345,28 @@
         <v>1286</v>
       </c>
       <c r="B781" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B782" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B783" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B784" t="s">
         <v>1290</v>
@@ -12379,12 +12385,12 @@
         <v>1293</v>
       </c>
       <c r="B786" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B787" t="s">
         <v>1295</v>
@@ -12395,60 +12401,60 @@
         <v>1296</v>
       </c>
       <c r="B788" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B789" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B790" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B791" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B792" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B793" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B794" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B795" t="s">
         <v>1304</v>
@@ -12459,20 +12465,20 @@
         <v>1305</v>
       </c>
       <c r="B796" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B797" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B798" t="s">
         <v>1308</v>
@@ -12523,28 +12529,28 @@
         <v>1319</v>
       </c>
       <c r="B804" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B805" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B806" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B807" t="s">
         <v>1323</v>
@@ -12627,12 +12633,12 @@
         <v>1342</v>
       </c>
       <c r="B817" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B818" t="s">
         <v>1344</v>
@@ -12651,20 +12657,20 @@
         <v>1347</v>
       </c>
       <c r="B820" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B821" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B822" t="s">
         <v>1350</v>
@@ -12675,12 +12681,12 @@
         <v>1351</v>
       </c>
       <c r="B823" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B824" t="s">
         <v>1353</v>
@@ -12691,28 +12697,28 @@
         <v>1354</v>
       </c>
       <c r="B825" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B826" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B827" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B828" t="s">
         <v>1358</v>
@@ -12723,44 +12729,44 @@
         <v>1359</v>
       </c>
       <c r="B829" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B830" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B831" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B832" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B833" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B834" t="s">
         <v>1365</v>
@@ -12795,12 +12801,12 @@
         <v>1372</v>
       </c>
       <c r="B838" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B839" t="s">
         <v>1374</v>
@@ -12819,28 +12825,28 @@
         <v>1377</v>
       </c>
       <c r="B841" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B842" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B843" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B844" t="s">
         <v>1381</v>
@@ -12947,36 +12953,36 @@
         <v>1406</v>
       </c>
       <c r="B857" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B858" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B859" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B860" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B861" t="s">
         <v>1411</v>
@@ -12987,52 +12993,52 @@
         <v>1412</v>
       </c>
       <c r="B862" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B863" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B864" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B865" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B866" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B867" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B868" t="s">
         <v>1419</v>
@@ -13067,12 +13073,12 @@
         <v>1426</v>
       </c>
       <c r="B872" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B873" t="s">
         <v>1428</v>
@@ -13107,12 +13113,12 @@
         <v>1435</v>
       </c>
       <c r="B877" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B878" t="s">
         <v>1437</v>
@@ -13139,20 +13145,20 @@
         <v>1442</v>
       </c>
       <c r="B881" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B882" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B883" t="s">
         <v>1445</v>
@@ -13195,12 +13201,12 @@
         <v>1454</v>
       </c>
       <c r="B888" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B889" t="s">
         <v>1456</v>
@@ -13211,12 +13217,12 @@
         <v>1457</v>
       </c>
       <c r="B890" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B891" t="s">
         <v>1459</v>
@@ -13251,20 +13257,20 @@
         <v>1466</v>
       </c>
       <c r="B895" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B896" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B897" t="s">
         <v>1469</v>
@@ -13307,52 +13313,52 @@
         <v>1478</v>
       </c>
       <c r="B902" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B903" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B904" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B905" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B906" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B907" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B908" t="s">
         <v>1485</v>
@@ -13387,28 +13393,28 @@
         <v>1492</v>
       </c>
       <c r="B912" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B913" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B914" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B915" t="s">
         <v>1496</v>
@@ -13451,20 +13457,20 @@
         <v>1505</v>
       </c>
       <c r="B920" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B921" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B922" t="s">
         <v>1508</v>
@@ -13499,12 +13505,12 @@
         <v>1515</v>
       </c>
       <c r="B926" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B927" t="s">
         <v>1517</v>
@@ -13523,12 +13529,12 @@
         <v>1520</v>
       </c>
       <c r="B929" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B930" t="s">
         <v>1522</v>
@@ -13547,12 +13553,12 @@
         <v>1525</v>
       </c>
       <c r="B932" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B933" t="s">
         <v>1527</v>
@@ -13563,12 +13569,12 @@
         <v>1528</v>
       </c>
       <c r="B934" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B935" t="s">
         <v>1530</v>
@@ -13587,12 +13593,12 @@
         <v>1533</v>
       </c>
       <c r="B937" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B938" t="s">
         <v>1535</v>
@@ -13603,28 +13609,28 @@
         <v>1536</v>
       </c>
       <c r="B939" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B940" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B941" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B942" t="s">
         <v>1540</v>
@@ -13651,44 +13657,44 @@
         <v>1545</v>
       </c>
       <c r="B945" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B946" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B947" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B948" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B949" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B950" t="s">
         <v>1551</v>
@@ -13723,28 +13729,28 @@
         <v>1558</v>
       </c>
       <c r="B954" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B955" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B956" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B957" t="s">
         <v>1562</v>
@@ -13795,28 +13801,28 @@
         <v>1573</v>
       </c>
       <c r="B963" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B964" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B965" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B966" t="s">
         <v>1577</v>
@@ -13827,20 +13833,20 @@
         <v>1578</v>
       </c>
       <c r="B967" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B968" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B969" t="s">
         <v>1581</v>
@@ -13883,12 +13889,12 @@
         <v>1590</v>
       </c>
       <c r="B974" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B975" t="s">
         <v>1592</v>
@@ -13915,12 +13921,12 @@
         <v>1597</v>
       </c>
       <c r="B978" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B979" t="s">
         <v>1599</v>
@@ -13939,36 +13945,36 @@
         <v>1602</v>
       </c>
       <c r="B981" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B982" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B983" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B984" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B985" t="s">
         <v>1607</v>
@@ -14019,12 +14025,12 @@
         <v>1618</v>
       </c>
       <c r="B991" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B992" t="s">
         <v>1620</v>
@@ -14043,28 +14049,28 @@
         <v>1623</v>
       </c>
       <c r="B994" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B995" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B996" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B997" t="s">
         <v>1627</v>
@@ -14075,12 +14081,12 @@
         <v>1628</v>
       </c>
       <c r="B998" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B999" t="s">
         <v>1630</v>
@@ -14099,20 +14105,20 @@
         <v>1633</v>
       </c>
       <c r="B1001" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1002" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1003" t="s">
         <v>1636</v>
@@ -14139,12 +14145,12 @@
         <v>1641</v>
       </c>
       <c r="B1006" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1007" t="s">
         <v>1643</v>
@@ -14163,12 +14169,12 @@
         <v>1646</v>
       </c>
       <c r="B1009" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1010" t="s">
         <v>1648</v>
@@ -14187,36 +14193,36 @@
         <v>1651</v>
       </c>
       <c r="B1012" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1013" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1014" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1015" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1016" t="s">
         <v>1656</v>
@@ -14235,12 +14241,12 @@
         <v>1659</v>
       </c>
       <c r="B1018" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B1019" t="s">
         <v>1661</v>
@@ -14267,12 +14273,12 @@
         <v>1666</v>
       </c>
       <c r="B1022" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1023" t="s">
         <v>1668</v>
@@ -14283,20 +14289,20 @@
         <v>1669</v>
       </c>
       <c r="B1024" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1025" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B1026" t="s">
         <v>1672</v>
@@ -14307,12 +14313,12 @@
         <v>1673</v>
       </c>
       <c r="B1027" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1028" t="s">
         <v>1675</v>
@@ -14323,20 +14329,20 @@
         <v>1676</v>
       </c>
       <c r="B1029" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1030" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1031" t="s">
         <v>1679</v>
@@ -14347,20 +14353,20 @@
         <v>1680</v>
       </c>
       <c r="B1032" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1033" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1034" t="s">
         <v>1683</v>
@@ -14371,12 +14377,12 @@
         <v>1684</v>
       </c>
       <c r="B1035" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1036" t="s">
         <v>1686</v>
@@ -14411,12 +14417,12 @@
         <v>1693</v>
       </c>
       <c r="B1040" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1041" t="s">
         <v>1695</v>
@@ -14427,12 +14433,12 @@
         <v>1696</v>
       </c>
       <c r="B1042" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1043" t="s">
         <v>1698</v>
@@ -14475,36 +14481,36 @@
         <v>1707</v>
       </c>
       <c r="B1048" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1049" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1050" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1051" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1052" t="s">
         <v>1712</v>
@@ -14555,12 +14561,12 @@
         <v>1723</v>
       </c>
       <c r="B1058" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1059" t="s">
         <v>1725</v>
@@ -14571,20 +14577,20 @@
         <v>1726</v>
       </c>
       <c r="B1060" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1061" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1062" t="s">
         <v>1729</v>
@@ -14635,12 +14641,12 @@
         <v>1740</v>
       </c>
       <c r="B1068" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1069" t="s">
         <v>1742</v>
@@ -14651,20 +14657,20 @@
         <v>1743</v>
       </c>
       <c r="B1070" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1071" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1072" t="s">
         <v>1746</v>
@@ -14675,44 +14681,44 @@
         <v>1747</v>
       </c>
       <c r="B1073" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1074" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1075" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1076" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1077" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1078" t="s">
         <v>1753</v>
@@ -14731,20 +14737,20 @@
         <v>1756</v>
       </c>
       <c r="B1080" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1081" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1082" t="s">
         <v>1759</v>
@@ -14763,12 +14769,12 @@
         <v>1762</v>
       </c>
       <c r="B1084" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1085" t="s">
         <v>1764</v>
@@ -14803,20 +14809,20 @@
         <v>1771</v>
       </c>
       <c r="B1089" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1090" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1091" t="s">
         <v>1774</v>
@@ -14859,12 +14865,12 @@
         <v>1783</v>
       </c>
       <c r="B1096" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B1097" t="s">
         <v>1785</v>
@@ -14883,12 +14889,12 @@
         <v>1788</v>
       </c>
       <c r="B1099" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B1100" t="s">
         <v>1790</v>
@@ -14899,20 +14905,20 @@
         <v>1791</v>
       </c>
       <c r="B1101" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B1102" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B1103" t="s">
         <v>1794</v>
@@ -14931,12 +14937,12 @@
         <v>1797</v>
       </c>
       <c r="B1105" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1106" t="s">
         <v>1799</v>
@@ -14963,12 +14969,12 @@
         <v>1804</v>
       </c>
       <c r="B1109" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1110" t="s">
         <v>1806</v>
@@ -15011,12 +15017,12 @@
         <v>1815</v>
       </c>
       <c r="B1115" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1116" t="s">
         <v>1817</v>
@@ -15123,44 +15129,44 @@
         <v>1842</v>
       </c>
       <c r="B1129" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1130" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1131" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1132" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1133" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1134" t="s">
         <v>1848</v>
@@ -15179,28 +15185,28 @@
         <v>1851</v>
       </c>
       <c r="B1136" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1137" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1138" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1139" t="s">
         <v>1855</v>
@@ -15267,12 +15273,12 @@
         <v>1870</v>
       </c>
       <c r="B1147" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B1148" t="s">
         <v>1872</v>
@@ -15283,12 +15289,12 @@
         <v>1873</v>
       </c>
       <c r="B1149" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B1150" t="s">
         <v>1875</v>
@@ -15323,44 +15329,44 @@
         <v>1882</v>
       </c>
       <c r="B1154" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B1155" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1156" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1157" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1158" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1159" t="s">
         <v>1888</v>
@@ -15379,20 +15385,20 @@
         <v>1891</v>
       </c>
       <c r="B1161" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1162" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1163" t="s">
         <v>1894</v>
@@ -15403,44 +15409,44 @@
         <v>1895</v>
       </c>
       <c r="B1164" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B1165" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B1166" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B1167" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B1168" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B1169" t="s">
         <v>1901</v>
@@ -15451,35 +15457,43 @@
         <v>1902</v>
       </c>
       <c r="B1170" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B1171" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B1172" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B1173" t="s">
-        <v>1905</v>
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1907</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/id/headTags.xlsx
+++ b/lang/id/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1909">
   <si>
     <t>en</t>
   </si>
@@ -5387,6 +5387,9 @@
   </si>
   <si>
     <t>Hutan Senja</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -6087,7 +6090,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14905,12 +14908,12 @@
         <v>1791</v>
       </c>
       <c r="B1101" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B1102" t="s">
         <v>1793</v>
@@ -14929,20 +14932,20 @@
         <v>1795</v>
       </c>
       <c r="B1104" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1797</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1106" t="s">
         <v>1799</v>
@@ -14953,28 +14956,28 @@
         <v>1800</v>
       </c>
       <c r="B1107" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1108" t="s">
         <v>1802</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1109" t="s">
         <v>1804</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B1110" t="s">
         <v>1806</v>
@@ -14985,44 +14988,44 @@
         <v>1807</v>
       </c>
       <c r="B1111" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1809</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1811</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1813</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1815</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1116" t="s">
         <v>1817</v>
@@ -15033,108 +15036,108 @@
         <v>1818</v>
       </c>
       <c r="B1117" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1820</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1822</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1824</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1826</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1828</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1830</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1832</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1834</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1836</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1838</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1128" t="s">
         <v>1840</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1129" t="s">
         <v>1842</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B1130" t="s">
         <v>1844</v>
@@ -15177,20 +15180,20 @@
         <v>1849</v>
       </c>
       <c r="B1135" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1136" t="s">
         <v>1851</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B1137" t="s">
         <v>1853</v>
@@ -15217,68 +15220,68 @@
         <v>1856</v>
       </c>
       <c r="B1140" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1858</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1860</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1862</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1864</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1866</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1868</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1870</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B1148" t="s">
         <v>1872</v>
@@ -15289,12 +15292,12 @@
         <v>1873</v>
       </c>
       <c r="B1149" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B1150" t="s">
         <v>1875</v>
@@ -15305,36 +15308,36 @@
         <v>1876</v>
       </c>
       <c r="B1151" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1878</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1153" t="s">
         <v>1880</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1154" t="s">
         <v>1882</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B1155" t="s">
         <v>1884</v>
@@ -15377,20 +15380,20 @@
         <v>1889</v>
       </c>
       <c r="B1160" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1161" t="s">
         <v>1891</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B1162" t="s">
         <v>1893</v>
@@ -15409,12 +15412,12 @@
         <v>1895</v>
       </c>
       <c r="B1164" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B1165" t="s">
         <v>1897</v>
@@ -15457,12 +15460,12 @@
         <v>1902</v>
       </c>
       <c r="B1170" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B1171" t="s">
         <v>1904</v>
@@ -15492,8 +15495,16 @@
         <v>1907</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1908</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/id/headTags.xlsx
+++ b/lang/id/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1911">
   <si>
     <t>en</t>
   </si>
@@ -2927,6 +2927,12 @@
   </si>
   <si>
     <t>Hypixel (Minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Tag Hypixel (Mutasi)</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -6090,7 +6096,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10772,12 +10778,12 @@
         <v>970</v>
       </c>
       <c r="B584" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B585" t="s">
         <v>972</v>
@@ -10788,12 +10794,12 @@
         <v>973</v>
       </c>
       <c r="B586" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B587" t="s">
         <v>975</v>
@@ -10836,12 +10842,12 @@
         <v>984</v>
       </c>
       <c r="B592" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B593" t="s">
         <v>986</v>
@@ -10908,12 +10914,12 @@
         <v>1001</v>
       </c>
       <c r="B601" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B602" t="s">
         <v>1003</v>
@@ -10932,12 +10938,12 @@
         <v>1006</v>
       </c>
       <c r="B604" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B605" t="s">
         <v>1008</v>
@@ -10980,28 +10986,28 @@
         <v>1017</v>
       </c>
       <c r="B610" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B611" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B612" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B613" t="s">
         <v>1021</v>
@@ -11012,12 +11018,12 @@
         <v>1022</v>
       </c>
       <c r="B614" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B615" t="s">
         <v>1024</v>
@@ -11044,12 +11050,12 @@
         <v>1029</v>
       </c>
       <c r="B618" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B619" t="s">
         <v>1031</v>
@@ -11084,76 +11090,76 @@
         <v>1038</v>
       </c>
       <c r="B623" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B624" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B625" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B626" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B627" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B628" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B629" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B630" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B631" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B632" t="s">
         <v>1048</v>
@@ -11164,20 +11170,20 @@
         <v>1049</v>
       </c>
       <c r="B633" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B634" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B635" t="s">
         <v>1052</v>
@@ -11188,28 +11194,28 @@
         <v>1053</v>
       </c>
       <c r="B636" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B637" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B638" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B639" t="s">
         <v>1057</v>
@@ -11220,36 +11226,36 @@
         <v>1058</v>
       </c>
       <c r="B640" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B641" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B642" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B643" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B644" t="s">
         <v>1063</v>
@@ -11284,20 +11290,20 @@
         <v>1070</v>
       </c>
       <c r="B648" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B649" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B650" t="s">
         <v>1073</v>
@@ -11316,20 +11322,20 @@
         <v>1076</v>
       </c>
       <c r="B652" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B653" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B654" t="s">
         <v>1079</v>
@@ -11348,12 +11354,12 @@
         <v>1082</v>
       </c>
       <c r="B656" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B657" t="s">
         <v>1084</v>
@@ -11364,20 +11370,20 @@
         <v>1085</v>
       </c>
       <c r="B658" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B659" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B660" t="s">
         <v>1088</v>
@@ -11412,44 +11418,44 @@
         <v>1095</v>
       </c>
       <c r="B664" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B665" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B666" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B667" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B668" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B669" t="s">
         <v>1101</v>
@@ -11468,12 +11474,12 @@
         <v>1104</v>
       </c>
       <c r="B671" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B672" t="s">
         <v>1106</v>
@@ -11492,12 +11498,12 @@
         <v>1109</v>
       </c>
       <c r="B674" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B675" t="s">
         <v>1111</v>
@@ -11508,20 +11514,20 @@
         <v>1112</v>
       </c>
       <c r="B676" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B677" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B678" t="s">
         <v>1115</v>
@@ -11548,20 +11554,20 @@
         <v>1120</v>
       </c>
       <c r="B681" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B682" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B683" t="s">
         <v>1123</v>
@@ -11644,12 +11650,12 @@
         <v>1142</v>
       </c>
       <c r="B693" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B694" t="s">
         <v>1144</v>
@@ -11692,12 +11698,12 @@
         <v>1153</v>
       </c>
       <c r="B699" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B700" t="s">
         <v>1155</v>
@@ -11708,20 +11714,20 @@
         <v>1156</v>
       </c>
       <c r="B701" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B702" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B703" t="s">
         <v>1159</v>
@@ -11732,28 +11738,28 @@
         <v>1160</v>
       </c>
       <c r="B704" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B705" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B706" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B707" t="s">
         <v>1164</v>
@@ -11764,28 +11770,28 @@
         <v>1165</v>
       </c>
       <c r="B708" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B709" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B710" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B711" t="s">
         <v>1169</v>
@@ -11796,12 +11802,12 @@
         <v>1170</v>
       </c>
       <c r="B712" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B713" t="s">
         <v>1172</v>
@@ -11860,12 +11866,12 @@
         <v>1185</v>
       </c>
       <c r="B720" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B721" t="s">
         <v>1187</v>
@@ -11940,12 +11946,12 @@
         <v>1204</v>
       </c>
       <c r="B730" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B731" t="s">
         <v>1206</v>
@@ -11972,12 +11978,12 @@
         <v>1211</v>
       </c>
       <c r="B734" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B735" t="s">
         <v>1213</v>
@@ -11988,52 +11994,52 @@
         <v>1214</v>
       </c>
       <c r="B736" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B737" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B738" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B739" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B740" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B741" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B742" t="s">
         <v>1221</v>
@@ -12052,36 +12058,36 @@
         <v>1224</v>
       </c>
       <c r="B744" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B745" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B746" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B747" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B748" t="s">
         <v>1229</v>
@@ -12140,20 +12146,20 @@
         <v>1242</v>
       </c>
       <c r="B755" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B756" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B757" t="s">
         <v>1245</v>
@@ -12164,20 +12170,20 @@
         <v>1246</v>
       </c>
       <c r="B758" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B759" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B760" t="s">
         <v>1249</v>
@@ -12188,20 +12194,20 @@
         <v>1250</v>
       </c>
       <c r="B761" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B762" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B763" t="s">
         <v>1253</v>
@@ -12244,12 +12250,12 @@
         <v>1262</v>
       </c>
       <c r="B768" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B769" t="s">
         <v>1264</v>
@@ -12284,12 +12290,12 @@
         <v>1271</v>
       </c>
       <c r="B773" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B774" t="s">
         <v>1273</v>
@@ -12356,28 +12362,28 @@
         <v>1288</v>
       </c>
       <c r="B782" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B783" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B784" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B785" t="s">
         <v>1292</v>
@@ -12396,12 +12402,12 @@
         <v>1295</v>
       </c>
       <c r="B787" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B788" t="s">
         <v>1297</v>
@@ -12412,60 +12418,60 @@
         <v>1298</v>
       </c>
       <c r="B789" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B790" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B791" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B792" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B793" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B794" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B795" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B796" t="s">
         <v>1306</v>
@@ -12476,20 +12482,20 @@
         <v>1307</v>
       </c>
       <c r="B797" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B798" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B799" t="s">
         <v>1310</v>
@@ -12540,28 +12546,28 @@
         <v>1321</v>
       </c>
       <c r="B805" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B806" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B807" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B808" t="s">
         <v>1325</v>
@@ -12644,12 +12650,12 @@
         <v>1344</v>
       </c>
       <c r="B818" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B819" t="s">
         <v>1346</v>
@@ -12668,20 +12674,20 @@
         <v>1349</v>
       </c>
       <c r="B821" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B822" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B823" t="s">
         <v>1352</v>
@@ -12692,12 +12698,12 @@
         <v>1353</v>
       </c>
       <c r="B824" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B825" t="s">
         <v>1355</v>
@@ -12708,28 +12714,28 @@
         <v>1356</v>
       </c>
       <c r="B826" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B827" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B828" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B829" t="s">
         <v>1360</v>
@@ -12740,44 +12746,44 @@
         <v>1361</v>
       </c>
       <c r="B830" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B831" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B832" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B833" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B834" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B835" t="s">
         <v>1367</v>
@@ -12812,12 +12818,12 @@
         <v>1374</v>
       </c>
       <c r="B839" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B840" t="s">
         <v>1376</v>
@@ -12836,28 +12842,28 @@
         <v>1379</v>
       </c>
       <c r="B842" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B843" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B844" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B845" t="s">
         <v>1383</v>
@@ -12964,36 +12970,36 @@
         <v>1408</v>
       </c>
       <c r="B858" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B859" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B860" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B861" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B862" t="s">
         <v>1413</v>
@@ -13004,52 +13010,52 @@
         <v>1414</v>
       </c>
       <c r="B863" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B864" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B865" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B866" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B867" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B868" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B869" t="s">
         <v>1421</v>
@@ -13084,12 +13090,12 @@
         <v>1428</v>
       </c>
       <c r="B873" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B874" t="s">
         <v>1430</v>
@@ -13124,12 +13130,12 @@
         <v>1437</v>
       </c>
       <c r="B878" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B879" t="s">
         <v>1439</v>
@@ -13156,20 +13162,20 @@
         <v>1444</v>
       </c>
       <c r="B882" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B883" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B884" t="s">
         <v>1447</v>
@@ -13212,12 +13218,12 @@
         <v>1456</v>
       </c>
       <c r="B889" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B890" t="s">
         <v>1458</v>
@@ -13228,12 +13234,12 @@
         <v>1459</v>
       </c>
       <c r="B891" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B892" t="s">
         <v>1461</v>
@@ -13268,20 +13274,20 @@
         <v>1468</v>
       </c>
       <c r="B896" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B897" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B898" t="s">
         <v>1471</v>
@@ -13324,52 +13330,52 @@
         <v>1480</v>
       </c>
       <c r="B903" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B904" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B905" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B906" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B907" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B908" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B909" t="s">
         <v>1487</v>
@@ -13404,28 +13410,28 @@
         <v>1494</v>
       </c>
       <c r="B913" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B914" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B915" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B916" t="s">
         <v>1498</v>
@@ -13468,20 +13474,20 @@
         <v>1507</v>
       </c>
       <c r="B921" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B922" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B923" t="s">
         <v>1510</v>
@@ -13516,12 +13522,12 @@
         <v>1517</v>
       </c>
       <c r="B927" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B928" t="s">
         <v>1519</v>
@@ -13540,12 +13546,12 @@
         <v>1522</v>
       </c>
       <c r="B930" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B931" t="s">
         <v>1524</v>
@@ -13564,12 +13570,12 @@
         <v>1527</v>
       </c>
       <c r="B933" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B934" t="s">
         <v>1529</v>
@@ -13580,12 +13586,12 @@
         <v>1530</v>
       </c>
       <c r="B935" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B936" t="s">
         <v>1532</v>
@@ -13604,12 +13610,12 @@
         <v>1535</v>
       </c>
       <c r="B938" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B939" t="s">
         <v>1537</v>
@@ -13620,28 +13626,28 @@
         <v>1538</v>
       </c>
       <c r="B940" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B941" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B942" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B943" t="s">
         <v>1542</v>
@@ -13668,44 +13674,44 @@
         <v>1547</v>
       </c>
       <c r="B946" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B947" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B948" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B949" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B950" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B951" t="s">
         <v>1553</v>
@@ -13740,28 +13746,28 @@
         <v>1560</v>
       </c>
       <c r="B955" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B956" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B957" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B958" t="s">
         <v>1564</v>
@@ -13812,28 +13818,28 @@
         <v>1575</v>
       </c>
       <c r="B964" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B965" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B966" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B967" t="s">
         <v>1579</v>
@@ -13844,20 +13850,20 @@
         <v>1580</v>
       </c>
       <c r="B968" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B969" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B970" t="s">
         <v>1583</v>
@@ -13900,12 +13906,12 @@
         <v>1592</v>
       </c>
       <c r="B975" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B976" t="s">
         <v>1594</v>
@@ -13932,12 +13938,12 @@
         <v>1599</v>
       </c>
       <c r="B979" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B980" t="s">
         <v>1601</v>
@@ -13956,36 +13962,36 @@
         <v>1604</v>
       </c>
       <c r="B982" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B983" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B984" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B985" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B986" t="s">
         <v>1609</v>
@@ -14036,12 +14042,12 @@
         <v>1620</v>
       </c>
       <c r="B992" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B993" t="s">
         <v>1622</v>
@@ -14060,28 +14066,28 @@
         <v>1625</v>
       </c>
       <c r="B995" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B996" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B997" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B998" t="s">
         <v>1629</v>
@@ -14092,12 +14098,12 @@
         <v>1630</v>
       </c>
       <c r="B999" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1000" t="s">
         <v>1632</v>
@@ -14116,20 +14122,20 @@
         <v>1635</v>
       </c>
       <c r="B1002" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1003" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1004" t="s">
         <v>1638</v>
@@ -14156,12 +14162,12 @@
         <v>1643</v>
       </c>
       <c r="B1007" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1008" t="s">
         <v>1645</v>
@@ -14180,12 +14186,12 @@
         <v>1648</v>
       </c>
       <c r="B1010" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1011" t="s">
         <v>1650</v>
@@ -14204,36 +14210,36 @@
         <v>1653</v>
       </c>
       <c r="B1013" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1014" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1015" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1016" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1017" t="s">
         <v>1658</v>
@@ -14252,12 +14258,12 @@
         <v>1661</v>
       </c>
       <c r="B1019" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1020" t="s">
         <v>1663</v>
@@ -14284,12 +14290,12 @@
         <v>1668</v>
       </c>
       <c r="B1023" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1024" t="s">
         <v>1670</v>
@@ -14300,20 +14306,20 @@
         <v>1671</v>
       </c>
       <c r="B1025" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1026" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1027" t="s">
         <v>1674</v>
@@ -14324,12 +14330,12 @@
         <v>1675</v>
       </c>
       <c r="B1028" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1029" t="s">
         <v>1677</v>
@@ -14340,20 +14346,20 @@
         <v>1678</v>
       </c>
       <c r="B1030" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1031" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1032" t="s">
         <v>1681</v>
@@ -14364,20 +14370,20 @@
         <v>1682</v>
       </c>
       <c r="B1033" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1034" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1035" t="s">
         <v>1685</v>
@@ -14388,12 +14394,12 @@
         <v>1686</v>
       </c>
       <c r="B1036" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B1037" t="s">
         <v>1688</v>
@@ -14428,12 +14434,12 @@
         <v>1695</v>
       </c>
       <c r="B1041" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1042" t="s">
         <v>1697</v>
@@ -14444,12 +14450,12 @@
         <v>1698</v>
       </c>
       <c r="B1043" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1044" t="s">
         <v>1700</v>
@@ -14492,36 +14498,36 @@
         <v>1709</v>
       </c>
       <c r="B1049" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1050" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1051" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1052" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1053" t="s">
         <v>1714</v>
@@ -14572,12 +14578,12 @@
         <v>1725</v>
       </c>
       <c r="B1059" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1060" t="s">
         <v>1727</v>
@@ -14588,20 +14594,20 @@
         <v>1728</v>
       </c>
       <c r="B1061" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1062" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1063" t="s">
         <v>1731</v>
@@ -14652,12 +14658,12 @@
         <v>1742</v>
       </c>
       <c r="B1069" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1070" t="s">
         <v>1744</v>
@@ -14668,20 +14674,20 @@
         <v>1745</v>
       </c>
       <c r="B1071" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1072" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1073" t="s">
         <v>1748</v>
@@ -14692,44 +14698,44 @@
         <v>1749</v>
       </c>
       <c r="B1074" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1075" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1076" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1077" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1078" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1079" t="s">
         <v>1755</v>
@@ -14748,20 +14754,20 @@
         <v>1758</v>
       </c>
       <c r="B1081" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1082" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1083" t="s">
         <v>1761</v>
@@ -14780,12 +14786,12 @@
         <v>1764</v>
       </c>
       <c r="B1085" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1086" t="s">
         <v>1766</v>
@@ -14820,20 +14826,20 @@
         <v>1773</v>
       </c>
       <c r="B1090" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1091" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1092" t="s">
         <v>1776</v>
@@ -14876,12 +14882,12 @@
         <v>1785</v>
       </c>
       <c r="B1097" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B1098" t="s">
         <v>1787</v>
@@ -14900,20 +14906,20 @@
         <v>1790</v>
       </c>
       <c r="B1100" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B1101" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B1102" t="s">
         <v>1793</v>
@@ -14924,20 +14930,20 @@
         <v>1794</v>
       </c>
       <c r="B1103" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B1104" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B1105" t="s">
         <v>1797</v>
@@ -14956,12 +14962,12 @@
         <v>1800</v>
       </c>
       <c r="B1107" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1108" t="s">
         <v>1802</v>
@@ -14988,12 +14994,12 @@
         <v>1807</v>
       </c>
       <c r="B1111" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1112" t="s">
         <v>1809</v>
@@ -15036,12 +15042,12 @@
         <v>1818</v>
       </c>
       <c r="B1117" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B1118" t="s">
         <v>1820</v>
@@ -15148,44 +15154,44 @@
         <v>1845</v>
       </c>
       <c r="B1131" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1132" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1133" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1134" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1135" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1136" t="s">
         <v>1851</v>
@@ -15204,28 +15210,28 @@
         <v>1854</v>
       </c>
       <c r="B1138" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1139" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1140" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1141" t="s">
         <v>1858</v>
@@ -15292,12 +15298,12 @@
         <v>1873</v>
       </c>
       <c r="B1149" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B1150" t="s">
         <v>1875</v>
@@ -15308,12 +15314,12 @@
         <v>1876</v>
       </c>
       <c r="B1151" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B1152" t="s">
         <v>1878</v>
@@ -15348,44 +15354,44 @@
         <v>1885</v>
       </c>
       <c r="B1156" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1157" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1158" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B1159" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1160" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1161" t="s">
         <v>1891</v>
@@ -15404,20 +15410,20 @@
         <v>1894</v>
       </c>
       <c r="B1163" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B1164" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B1165" t="s">
         <v>1897</v>
@@ -15428,44 +15434,44 @@
         <v>1898</v>
       </c>
       <c r="B1166" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B1167" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B1168" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B1169" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1170" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B1171" t="s">
         <v>1904</v>
@@ -15476,35 +15482,43 @@
         <v>1905</v>
       </c>
       <c r="B1172" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B1173" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B1174" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B1175" t="s">
-        <v>1908</v>
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1910</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/id/headTags.xlsx
+++ b/lang/id/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1913">
   <si>
     <t>en</t>
   </si>
@@ -2929,2824 +2929,2830 @@
     <t>Hypixel (Minion)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutasi)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Hewan Peliharaan)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (Karung)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (Kulit)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Jimat)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hypixel (Ikan Piala)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Tanah yang Berkilau)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Zaman Es</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Pemanjat Es</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Es Krim</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Ikon (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Ikon (Blok Besi)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Ikon (Lainnya)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Ikon (latar belakang putih)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Identitas V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Inazuma Sebelas</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Luar biasa</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Taman Indigo</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Cedera</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Blok Lapisan Dalam</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Enkripsi</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Serangga</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Tak terkalahkan</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Ini</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak dan Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jepang</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Perhiasan</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>Petualangan Aneh Jojo</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Petualangan Aneh Jojo (Berdiri)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Perjalanan</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Layanan Pengiriman Kiki</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kim Kemungkinan</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Dapur</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Kap Lampu</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Lanskap</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Lentera</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Kastil di Langit</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Kiri 4 Mati</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Legendaris</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Perpustakaan Ruina</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Hidup itu aneh</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Perusahaan Limbus</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Putri Duyung Kecil</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Mimpi Buruk Kecil</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Toko Kengerian Kecil</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Akademi Penyihir Kecil</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Makhluk yang jatuh cinta</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Orang yang jatuh cinta</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Bagian Mesin</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Bapa Gila</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Dibuat di Abyss</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Riasan wajah</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao Pahlawan dengan Hati yang Murni</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Maria dan Bunga Penyihir</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Maskot</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Topeng</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Topeng (penuh)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Masker (fungsional)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Masker (kesehatan)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Topeng (massa Minecraft)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Efek Massa</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Para Penguasa Alam Semesta</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Simbol Matematika</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Makan.</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Daging</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Abad Pertengahan</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Kedai Abad Pertengahan</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Helm Perang Abad Pertengahan</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Mega Evolusi</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Aktor Mekakucity</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Logam</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Meksiko</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Peralatan Militer</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft April Mop</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Edisi Batuan Dasar Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Ruang Bawah Tanah Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Bumi Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Edisi Pendidikan Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Legenda Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Film Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Mode Cerita Minecraft</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Penambang</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Penyapu ranjau</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Ajaib: Kisah Kepik &amp; Kucing Noir</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Buku Harian Masa Depan)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Tepi Cermin</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Pembantu Naga Nona Kobayashi</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Paket Sumber Daya Mizuno</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Helm Perang Modern</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Uang</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Pencurian Uang</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Pulau Monyet</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Gunung Kekacauan</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Mencuci mulut</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Pembunuhan Drone</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Jamur</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Jamur (Bioma)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Jamur (Penutup Kepala)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Musik</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Kumis</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Teman Rusa ku Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Totoro Tetanggaku</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nausicaä dari Lembah Angin</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (terinspirasi)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (vanila)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Makhluk Netral</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Orang yang netral</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Malam Tahun Baru</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Malam di Hutan</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Mimpi Buruk Sebelum Natal</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Kura-kura Ninja</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Tidak Ada Permainan Tidak Ada Kehidupan</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Pesta Rumah Noel</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Mitologi Norse</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (Edisi Pendidikan)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Dampak Nuklir</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Tahta Nuklir</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Nomor</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Kacang</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Laut</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Petugas Cap</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy dan Kecoak</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Objek Sumber Terbuka</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Bijih</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Organ dan Bagian Tubuh</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Tutup Kepala Lainnya</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Penerangan Lainnya</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Makhluk Mistik Lainnya</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Blok Lapisan Luar</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Lingkar Pasifik</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Empeng</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Wajah yang dicat</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Taman Pucat (terinspirasi)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Beruang Panda</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Labirin Panci</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Tolong kertasnya</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>PaRappa sang Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Pesta</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Kue Kering dan Permen</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Gaji</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Kacang tanah (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Tabel Periodik Unsur</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Peralatan Hewan Peliharaan</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Babi</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Kelingking dan Otak</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pinokio</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Bajak Laut Karibia</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Menara Pizza</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Tumbuhan vs Zombi</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Medan Pertempuran Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generasi 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generasi 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generasi 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generasi 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generasi 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generasi 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generasi 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generasi 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon Generasi 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Item Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Pelatih Pokemon</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Beruang Kutub</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Polisi</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Waktu Bermain Poppy</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Hadir</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Kebanggaan</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Primata</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Putri Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Labu</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Labu (Menyala)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Tanda Baca</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>Gempa</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Kelinci</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Kereta Api</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Dunia Hujan</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re: Pencipta</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Re: Nol</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Alam Dewa Gila</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Penebusan Mati Merah</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Kerudung Merah</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Bentuk Regional</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Pertunjukan Reguler</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Agama</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Reptil</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Penjaga Penyelamat</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Pita</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick dan Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Risiko Hujan</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Saingan dari Aether</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Sungai</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Pertunjukan Film Horor Berbatu</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Hewan pengerat</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Entitas yang diputar</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Tutup Kepala Kerajaan</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Petualangan Besar</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Makhluk yang menyedihkan</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Orang yang sedih</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (Lainnya)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Hikayat Tanya si Jahat</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Helm Samurai</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Memuaskan</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Melihat</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Syal</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Pelanggaran Penahanan SCP</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Berteriak</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Lautan Pencuri</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Pelaut</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Eksperimen Serial Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Tujuh Dosa yang Mematikan</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Bayangan Raksasa</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Domba</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon yang mengkilap</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Pengiriman</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Ksatria Sekop</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Kerangka</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Kerangka (Vanilla)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Makhluk Skeptis</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Orang yang Skeptis</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Makhluk Tidur</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Orang yang sedang tidur</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Diiris</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Lendir</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Lendir (Vanilla)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Peternak Lendir</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Merokok</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Patung Salju</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Putri Salju dan Tujuh Kurcaci</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Lagu-lagu Perang</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Sonic si Landak</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Ksatria Jiwa</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Perjalanan Luar Angkasa</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Telur bertelur</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Pemijah</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Laba-laba</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Laba-laba (Vanilla)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Rumah Menakut-nakuti Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Spora</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Olahraga</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Menyebar</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Musim Semi untuk Hidup</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Mata-mata x Keluarga</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Permainan Cumi-cumi</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Hari Santo Patrick</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Bintang vs Kekuatan Jahat</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Helm Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Helm Trooper Star Wars</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Lembah Stardew</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Pemula</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Alat tulis</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steins; Gerbang</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steve.</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Batu</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Penyimpanan (lainnya)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Musim panas</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Kacamata hitam</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Supranatural</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Makhluk yang Terkejut</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Orang yang Terkejut</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Rawa</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Kusut</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Tim Benteng 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Terraria (Bencana)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Saat Itu Aku Bereinkarnasi Sebagai Lendir</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Petualangan Tintin</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Sirkus Digital yang Menakjubkan</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Dunia Gumball yang Menakjubkan</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>Pengikatan Ishak</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Kucing Kembali</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>Zaman Tembaga</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Alur Baru Sang Kaisar</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Bintang Ensemble Inggris</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>Orang Tua yang Cukup Ganjil</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Dinosaurus yang Baik</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Detektif Tikus yang Hebat</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Petualangan Suram Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Si Bungkuk dari Notre Dame</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Raksasa Besi</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Penjaga Terakhir</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>Legenda Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>Rumah Burung Hantu</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>Sang Putri dan Katak</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>Pertunjukan Ren &amp; Stimpy</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Jalan menuju El Dorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Pembantaian Gergaji Mesin di Texas</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Tiga Caballeros</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Pertunjukan Burung Pelatuk Kayu</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Malam-malam di Rachel's</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Pelopor Masa Depan</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Celah Gigi</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Proyek Touhou</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Mainan</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Lalu Lintas</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Lampu Lalu Lintas</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Rambu Lalu Lintas</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Jejak dan Kisah</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Kepala Transparan</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Tempat Sampah</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Harta karun</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Planet Harta Karun</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Pembaruan Uji Coba yang Rumit</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Kura-kura</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Hutan Senja</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Ketika Mereka Menangis</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale Kuning</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Simbol Universal</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Satwa Liar Perkotaan</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>V untuk Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Kasih Sayang</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vanila (dihapus)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Blok Vanilla</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Makanan Vanilla</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Helm Vanilla</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Item Vanilla</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Pemburu Kubah</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Sayuran</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Kendaraan</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Viking</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Penduduk desa</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Penduduk desa (Gurun)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Penduduk desa (Hutan)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Penduduk desa (Dataran)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Penduduk desa (Savana)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Penduduk desa (Tundra Bersalju)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Penduduk desa (Rawa)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Penduduk desa (Taiga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Youtuber Virtual</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace dan Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Perang Dunia</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Kucing Prajurit</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Kami Beruang Beruang</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Kami Sedikit Senang</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Cuaca</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Selamat datang di rumah</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Siapa ini?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Pembaruan Liar</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Sayap Api</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Musim dingin</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Dunia Keajaiban yang Indah</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Kayu</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Wol</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Helm Keselamatan Kerja</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Simulator Yandere</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Kapal Selam Kuning</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Muda</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Zodiak</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Tag Hypixel (Mutasi)</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Hewan Peliharaan)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (Karung)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (Kulit)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Jimat)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hypixel (Ikan Piala)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Tanah yang Berkilau)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Zaman Es</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Pemanjat Es</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Es Krim</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Ikon (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Ikon (Blok Besi)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Ikon (Lainnya)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Ikon (latar belakang putih)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Identitas V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Inazuma Sebelas</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Luar biasa</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Taman Indigo</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Cedera</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Blok Lapisan Dalam</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Enkripsi</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Serangga</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Tak terkalahkan</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Ini</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak dan Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jepang</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Perhiasan</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>Petualangan Aneh Jojo</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Petualangan Aneh Jojo (Berdiri)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Perjalanan</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Layanan Pengiriman Kiki</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kim Kemungkinan</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Dapur</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Kap Lampu</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Lanskap</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Lentera</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Kastil di Langit</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Kiri 4 Mati</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Legendaris</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Perpustakaan Ruina</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Hidup itu aneh</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Perusahaan Limbus</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Putri Duyung Kecil</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Mimpi Buruk Kecil</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Toko Kengerian Kecil</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Akademi Penyihir Kecil</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Makhluk yang jatuh cinta</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Orang yang jatuh cinta</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Bagian Mesin</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Bapa Gila</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Dibuat di Abyss</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Riasan wajah</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao Pahlawan dengan Hati yang Murni</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Maria dan Bunga Penyihir</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Maskot</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Topeng</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Topeng (penuh)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Masker (fungsional)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Masker (kesehatan)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Topeng (massa Minecraft)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Efek Massa</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Para Penguasa Alam Semesta</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Simbol Matematika</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Makan.</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Daging</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Abad Pertengahan</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Kedai Abad Pertengahan</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Helm Perang Abad Pertengahan</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Mega Evolusi</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Aktor Mekakucity</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Logam</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Meksiko</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Peralatan Militer</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft April Mop</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Edisi Batuan Dasar Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Ruang Bawah Tanah Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Bumi Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Edisi Pendidikan Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Legenda Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Film Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Mode Cerita Minecraft</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Penambang</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Penyapu ranjau</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Ajaib: Kisah Kepik &amp; Kucing Noir</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Buku Harian Masa Depan)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Tepi Cermin</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Pembantu Naga Nona Kobayashi</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Paket Sumber Daya Mizuno</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Helm Perang Modern</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Uang</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Pencurian Uang</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Pulau Monyet</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Gunung Kekacauan</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Mencuci mulut</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Pembunuhan Drone</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Jamur</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Jamur (Bioma)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Jamur (Penutup Kepala)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Musik</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Kumis</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Teman Rusa ku Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Totoro Tetanggaku</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nausicaä dari Lembah Angin</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (terinspirasi)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (vanila)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Makhluk Netral</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Orang yang netral</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Malam Tahun Baru</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Malam di Hutan</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Mimpi Buruk Sebelum Natal</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Kura-kura Ninja</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Tidak Ada Permainan Tidak Ada Kehidupan</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Pesta Rumah Noel</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Mitologi Norse</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (Edisi Pendidikan)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Dampak Nuklir</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Tahta Nuklir</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Nomor</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Kacang</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Laut</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Petugas Cap</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy dan Kecoak</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Objek Sumber Terbuka</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Bijih</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Organ dan Bagian Tubuh</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Tutup Kepala Lainnya</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Penerangan Lainnya</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Makhluk Mistik Lainnya</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Blok Lapisan Luar</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Lingkar Pasifik</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Empeng</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Wajah yang dicat</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Taman Pucat (terinspirasi)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Beruang Panda</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Labirin Panci</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Tolong kertasnya</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>PaRappa sang Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Pesta</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Kue Kering dan Permen</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Gaji</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Kacang tanah (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Tabel Periodik Unsur</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Peralatan Hewan Peliharaan</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Babi</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Kelingking dan Otak</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pinokio</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Bajak Laut Karibia</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Menara Pizza</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Tumbuhan vs Zombi</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Medan Pertempuran Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generasi 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generasi 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generasi 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generasi 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generasi 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generasi 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generasi 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generasi 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon Generasi 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Item Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Pelatih Pokemon</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Beruang Kutub</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Polisi</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Waktu Bermain Poppy</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Hadir</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Kebanggaan</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Primata</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Putri Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Labu</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Labu (Menyala)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Tanda Baca</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>Gempa</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Kelinci</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Kereta Api</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Dunia Hujan</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re: Pencipta</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Re: Nol</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Alam Dewa Gila</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Penebusan Mati Merah</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Kerudung Merah</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Bentuk Regional</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Pertunjukan Reguler</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Agama</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Reptil</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Penjaga Penyelamat</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Pita</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick dan Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Risiko Hujan</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Saingan dari Aether</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Sungai</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Pertunjukan Film Horor Berbatu</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Hewan pengerat</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Entitas yang diputar</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Tutup Kepala Kerajaan</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Petualangan Besar</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Makhluk yang menyedihkan</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Orang yang sedih</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (Lainnya)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Hikayat Tanya si Jahat</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Helm Samurai</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Memuaskan</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Melihat</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Syal</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Pelanggaran Penahanan SCP</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Berteriak</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Lautan Pencuri</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Pelaut</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Eksperimen Serial Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Tujuh Dosa yang Mematikan</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Bayangan Raksasa</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Domba</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon yang mengkilap</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Pengiriman</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Ksatria Sekop</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Kerangka</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Kerangka (Vanilla)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Makhluk Skeptis</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Orang yang Skeptis</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Makhluk Tidur</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Orang yang sedang tidur</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Diiris</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Lendir</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Lendir (Vanilla)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Peternak Lendir</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Merokok</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Patung Salju</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Putri Salju dan Tujuh Kurcaci</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Lagu-lagu Perang</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Sonic si Landak</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Ksatria Jiwa</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Perjalanan Luar Angkasa</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Telur bertelur</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Pemijah</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Laba-laba</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Laba-laba (Vanilla)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Rumah Menakut-nakuti Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Spora</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Olahraga</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Menyebar</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Musim Semi untuk Hidup</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Mata-mata x Keluarga</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Permainan Cumi-cumi</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Hari Santo Patrick</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Bintang vs Kekuatan Jahat</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Helm Star Wars</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Helm Trooper Star Wars</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Lembah Stardew</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Pemula</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Alat tulis</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steins; Gerbang</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steve.</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Batu</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Penyimpanan (lainnya)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Musim panas</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Kacamata hitam</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Supranatural</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Makhluk yang Terkejut</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Orang yang Terkejut</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Rawa</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Kusut</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Tim Benteng 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Terraria (Bencana)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Saat Itu Aku Bereinkarnasi Sebagai Lendir</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Petualangan Tintin</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Sirkus Digital yang Menakjubkan</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Dunia Gumball yang Menakjubkan</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>Pengikatan Ishak</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Kucing Kembali</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>Zaman Tembaga</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Alur Baru Sang Kaisar</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Bintang Ensemble Inggris</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>Orang Tua yang Cukup Ganjil</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Dinosaurus yang Baik</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Detektif Tikus yang Hebat</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Petualangan Suram Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Si Bungkuk dari Notre Dame</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Raksasa Besi</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Penjaga Terakhir</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>Legenda Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>Rumah Burung Hantu</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>Sang Putri dan Katak</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>Pertunjukan Ren &amp; Stimpy</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Jalan menuju El Dorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Pembantaian Gergaji Mesin di Texas</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Tiga Caballeros</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Pertunjukan Burung Pelatuk Kayu</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Malam-malam di Rachel's</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Pelopor Masa Depan</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Celah Gigi</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Proyek Touhou</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Mainan</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Lalu Lintas</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Lampu Lalu Lintas</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Rambu Lalu Lintas</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Jejak dan Kisah</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Kepala Transparan</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Tempat Sampah</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Harta karun</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Planet Harta Karun</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Pembaruan Uji Coba yang Rumit</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Kura-kura</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Hutan Senja</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Ketika Mereka Menangis</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale Kuning</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Simbol Universal</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Satwa Liar Perkotaan</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>V untuk Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Kasih Sayang</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vanila (dihapus)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Blok Vanilla</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Makanan Vanilla</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Helm Vanilla</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Item Vanilla</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Pemburu Kubah</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Sayuran</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Kendaraan</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Viking</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Penduduk desa</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Penduduk desa (Gurun)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Penduduk desa (Hutan)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Penduduk desa (Dataran)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Penduduk desa (Savana)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Penduduk desa (Tundra Bersalju)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Penduduk desa (Rawa)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Penduduk desa (Taiga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Youtuber Virtual</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace dan Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Perang Dunia</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Kucing Prajurit</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Kami Beruang Beruang</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Kami Sedikit Senang</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Cuaca</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Selamat datang di rumah</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Siapa ini?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Pembaruan Liar</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Sayap Api</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Musim dingin</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Dunia Keajaiban yang Indah</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Kayu</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Wol</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Helm Keselamatan Kerja</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Simulator Yandere</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Kapal Selam Kuning</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Muda</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Zodiak</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -6096,7 +6102,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15514,11 +15520,19 @@
         <v>1910</v>
       </c>
       <c r="B1176" t="s">
-        <v>1910</v>
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1912</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
